--- a/单周期硬布线控制器表达式自动生成.xlsx
+++ b/单周期硬布线控制器表达式自动生成.xlsx
@@ -902,10 +902,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1057,24 +1057,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,8 +1078,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,16 +1126,37 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,46 +1172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,23 +1185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,7 +1305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,13 +1335,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1395,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,121 +1473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,15 +1689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1722,17 +1713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1748,17 +1739,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,148 +1789,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2455,7 +2455,7 @@
   </sheetPr>
   <dimension ref="A1:AS61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
@@ -9171,13 +9171,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="AQ77" sqref="AQ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9189,14 +9189,18 @@
     <col min="5" max="13" width="4.625" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.25" style="19" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="4.625" style="19" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="47.75" style="19" hidden="1" customWidth="1"/>
-    <col min="17" max="20" width="4.625" style="19" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="23" width="9" customWidth="1"/>
-    <col min="33" max="40" width="9" style="20"/>
+    <col min="16" max="16" width="57.375" style="19" customWidth="1"/>
+    <col min="17" max="20" width="4.625" style="19" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11" hidden="1" customWidth="1"/>
+    <col min="22" max="32" width="9" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="20" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.75" style="20" customWidth="1"/>
+    <col min="35" max="35" width="5" style="20" customWidth="1"/>
+    <col min="36" max="36" width="9.125" style="20" customWidth="1"/>
+    <col min="37" max="40" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="22.5" spans="1:40">
+    <row r="1" s="18" customFormat="1" ht="22.5" spans="1:41">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -9353,8 +9357,12 @@
         <f>真值表!AO1</f>
         <v>B_BRANCH1</v>
       </c>
+      <c r="AO1" s="41" t="str">
+        <f>真值表!AP1</f>
+        <v>B_BRANCH0</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="24" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -9515,8 +9523,12 @@
         <f>真值表!AO2</f>
         <v>0</v>
       </c>
+      <c r="AO2" s="42">
+        <f>真值表!AP2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:41">
       <c r="A3" s="28" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -9677,8 +9689,12 @@
         <f>真值表!AO3</f>
         <v>0</v>
       </c>
+      <c r="AO3" s="43">
+        <f>真值表!AP3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:41">
       <c r="A4" s="24" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -9839,8 +9855,12 @@
         <f>真值表!AO4</f>
         <v>0</v>
       </c>
+      <c r="AO4" s="42">
+        <f>真值表!AP4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="28" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -10001,8 +10021,12 @@
         <f>真值表!AO5</f>
         <v>0</v>
       </c>
+      <c r="AO5" s="43">
+        <f>真值表!AP5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="24" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -10163,8 +10187,12 @@
         <f>真值表!AO6</f>
         <v>0</v>
       </c>
+      <c r="AO6" s="42">
+        <f>真值表!AP6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="28" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -10325,8 +10353,12 @@
         <f>真值表!AO7</f>
         <v>0</v>
       </c>
+      <c r="AO7" s="43">
+        <f>真值表!AP7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="24" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -10487,8 +10519,12 @@
         <f>真值表!AO8</f>
         <v>0</v>
       </c>
+      <c r="AO8" s="42">
+        <f>真值表!AP8</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="28" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -10649,8 +10685,12 @@
         <f>真值表!AO9</f>
         <v>0</v>
       </c>
+      <c r="AO9" s="43">
+        <f>真值表!AP9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="24" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -10811,8 +10851,12 @@
         <f>真值表!AO10</f>
         <v>0</v>
       </c>
+      <c r="AO10" s="42">
+        <f>真值表!AP10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11" s="28" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -10973,8 +11017,12 @@
         <f>真值表!AO11</f>
         <v>0</v>
       </c>
+      <c r="AO11" s="43">
+        <f>真值表!AP11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12" s="24" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -11135,8 +11183,12 @@
         <f>真值表!AO12</f>
         <v>0</v>
       </c>
+      <c r="AO12" s="42">
+        <f>真值表!AP12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" hidden="1" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13" s="28" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -11297,8 +11349,12 @@
         <f>真值表!AO13</f>
         <v>0</v>
       </c>
+      <c r="AO13" s="43">
+        <f>真值表!AP13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" hidden="1" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14" s="24" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -11459,8 +11515,12 @@
         <f>真值表!AO14</f>
         <v>0</v>
       </c>
+      <c r="AO14" s="42">
+        <f>真值表!AP14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" hidden="1" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="A15" s="28" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -11621,8 +11681,12 @@
         <f>真值表!AO15</f>
         <v>0</v>
       </c>
+      <c r="AO15" s="43">
+        <f>真值表!AP15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" hidden="1" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="A16" s="24" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -11783,8 +11847,12 @@
         <f>真值表!AO16</f>
         <v>0</v>
       </c>
+      <c r="AO16" s="42">
+        <f>真值表!AP16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" hidden="1" spans="1:40">
+    <row r="17" spans="1:41">
       <c r="A17" s="28" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -11945,8 +12013,12 @@
         <f>真值表!AO17</f>
         <v>0</v>
       </c>
+      <c r="AO17" s="43">
+        <f>真值表!AP17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" hidden="1" spans="1:40">
+    <row r="18" spans="1:41">
       <c r="A18" s="24" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -12107,8 +12179,12 @@
         <f>真值表!AO18</f>
         <v>0</v>
       </c>
+      <c r="AO18" s="42">
+        <f>真值表!AP18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" hidden="1" spans="1:40">
+    <row r="19" spans="1:41">
       <c r="A19" s="28" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -12269,8 +12345,12 @@
         <f>真值表!AO19</f>
         <v>0</v>
       </c>
+      <c r="AO19" s="43">
+        <f>真值表!AP19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" hidden="1" spans="1:40">
+    <row r="20" spans="1:41">
       <c r="A20" s="24" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -12431,8 +12511,12 @@
         <f>真值表!AO20</f>
         <v>0</v>
       </c>
+      <c r="AO20" s="42">
+        <f>真值表!AP20</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" hidden="1" spans="1:40">
+    <row r="21" spans="1:41">
       <c r="A21" s="28" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -12593,8 +12677,12 @@
         <f>真值表!AO21</f>
         <v>0</v>
       </c>
+      <c r="AO21" s="43">
+        <f>真值表!AP21</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" hidden="1" spans="1:40">
+    <row r="22" spans="1:41">
       <c r="A22" s="24" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -12755,8 +12843,12 @@
         <f>真值表!AO22</f>
         <v>0</v>
       </c>
+      <c r="AO22" s="42">
+        <f>真值表!AP22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" hidden="1" spans="1:40">
+    <row r="23" spans="1:41">
       <c r="A23" s="28" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -12917,8 +13009,12 @@
         <f>真值表!AO23</f>
         <v>0</v>
       </c>
+      <c r="AO23" s="43">
+        <f>真值表!AP23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" hidden="1" spans="1:40">
+    <row r="24" spans="1:41">
       <c r="A24" s="24" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -13079,8 +13175,12 @@
         <f>真值表!AO24</f>
         <v>0</v>
       </c>
+      <c r="AO24" s="42">
+        <f>真值表!AP24</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" hidden="1" spans="1:40">
+    <row r="25" spans="1:41">
       <c r="A25" s="28" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -13241,8 +13341,12 @@
         <f>真值表!AO25</f>
         <v>0</v>
       </c>
+      <c r="AO25" s="43">
+        <f>真值表!AP25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:41">
       <c r="A26" s="24" t="str">
         <f>真值表!B26</f>
         <v>SLLV</v>
@@ -13403,8 +13507,12 @@
         <f>真值表!AO26</f>
         <v>0</v>
       </c>
+      <c r="AO26" s="42">
+        <f>真值表!AP26</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:41">
       <c r="A27" s="28" t="str">
         <f>真值表!B27</f>
         <v>SRLV</v>
@@ -13565,8 +13673,12 @@
         <f>真值表!AO27</f>
         <v>0</v>
       </c>
+      <c r="AO27" s="43">
+        <f>真值表!AP27</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:41">
       <c r="A28" s="24" t="str">
         <f>真值表!B28</f>
         <v>SRAV</v>
@@ -13727,8 +13839,12 @@
         <f>真值表!AO28</f>
         <v>0</v>
       </c>
+      <c r="AO28" s="42">
+        <f>真值表!AP28</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:41">
       <c r="A29" s="28" t="str">
         <f>真值表!B29</f>
         <v>SUBU</v>
@@ -13889,8 +14005,12 @@
         <f>真值表!AO29</f>
         <v>0</v>
       </c>
+      <c r="AO29" s="43">
+        <f>真值表!AP29</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:41">
       <c r="A30" s="24" t="str">
         <f>真值表!B30</f>
         <v>XOR</v>
@@ -14051,8 +14171,12 @@
         <f>真值表!AO30</f>
         <v>0</v>
       </c>
+      <c r="AO30" s="42">
+        <f>真值表!AP30</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" hidden="1" spans="1:40">
+    <row r="31" spans="1:41">
       <c r="A31" s="28" t="str">
         <f>真值表!B31</f>
         <v>XORI</v>
@@ -14213,8 +14337,12 @@
         <f>真值表!AO31</f>
         <v>0</v>
       </c>
+      <c r="AO31" s="43">
+        <f>真值表!AP31</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" hidden="1" spans="1:40">
+    <row r="32" spans="1:41">
       <c r="A32" s="24" t="str">
         <f>真值表!B32</f>
         <v>LUI</v>
@@ -14375,8 +14503,12 @@
         <f>真值表!AO32</f>
         <v>0</v>
       </c>
+      <c r="AO32" s="42">
+        <f>真值表!AP32</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" hidden="1" spans="1:40">
+    <row r="33" spans="1:41">
       <c r="A33" s="28" t="str">
         <f>真值表!B33</f>
         <v>SLTIU</v>
@@ -14537,8 +14669,12 @@
         <f>真值表!AO33</f>
         <v>0</v>
       </c>
+      <c r="AO33" s="43">
+        <f>真值表!AP33</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" hidden="1" spans="1:40">
+    <row r="34" spans="1:41">
       <c r="A34" s="24" t="str">
         <f>真值表!B34</f>
         <v>MULTU</v>
@@ -14699,8 +14835,12 @@
         <f>真值表!AO34</f>
         <v>0</v>
       </c>
+      <c r="AO34" s="42">
+        <f>真值表!AP34</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" hidden="1" spans="1:40">
+    <row r="35" spans="1:41">
       <c r="A35" s="28" t="str">
         <f>真值表!B35</f>
         <v>DIVU</v>
@@ -14861,8 +15001,12 @@
         <f>真值表!AO35</f>
         <v>0</v>
       </c>
+      <c r="AO35" s="43">
+        <f>真值表!AP35</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:41">
       <c r="A36" s="24" t="str">
         <f>真值表!B36</f>
         <v>MFLO</v>
@@ -15023,8 +15167,12 @@
         <f>真值表!AO36</f>
         <v>0</v>
       </c>
+      <c r="AO36" s="42">
+        <f>真值表!AP36</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" hidden="1" spans="1:40">
+    <row r="37" spans="1:41">
       <c r="A37" s="28" t="str">
         <f>真值表!B37</f>
         <v>LB</v>
@@ -15185,8 +15333,12 @@
         <f>真值表!AO37</f>
         <v>0</v>
       </c>
+      <c r="AO37" s="43">
+        <f>真值表!AP37</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" hidden="1" spans="1:40">
+    <row r="38" spans="1:41">
       <c r="A38" s="24" t="str">
         <f>真值表!B38</f>
         <v>LBU</v>
@@ -15347,8 +15499,12 @@
         <f>真值表!AO38</f>
         <v>0</v>
       </c>
+      <c r="AO38" s="42">
+        <f>真值表!AP38</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" hidden="1" spans="1:40">
+    <row r="39" spans="1:41">
       <c r="A39" s="28" t="str">
         <f>真值表!B39</f>
         <v>LH</v>
@@ -15509,8 +15665,12 @@
         <f>真值表!AO39</f>
         <v>0</v>
       </c>
+      <c r="AO39" s="43">
+        <f>真值表!AP39</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" hidden="1" spans="1:40">
+    <row r="40" spans="1:41">
       <c r="A40" s="24" t="str">
         <f>真值表!B40</f>
         <v>LHU</v>
@@ -15671,8 +15831,12 @@
         <f>真值表!AO40</f>
         <v>0</v>
       </c>
+      <c r="AO40" s="42">
+        <f>真值表!AP40</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" hidden="1" spans="1:40">
+    <row r="41" spans="1:41">
       <c r="A41" s="28" t="str">
         <f>真值表!B41</f>
         <v>SB</v>
@@ -15833,8 +15997,12 @@
         <f>真值表!AO41</f>
         <v>0</v>
       </c>
+      <c r="AO41" s="43">
+        <f>真值表!AP41</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" hidden="1" spans="1:40">
+    <row r="42" spans="1:41">
       <c r="A42" s="24" t="str">
         <f>真值表!B42</f>
         <v>SH</v>
@@ -15995,8 +16163,12 @@
         <f>真值表!AO42</f>
         <v>0</v>
       </c>
+      <c r="AO42" s="42">
+        <f>真值表!AP42</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" hidden="1" spans="1:40">
+    <row r="43" spans="1:41">
       <c r="A43" s="28" t="str">
         <f>真值表!B43</f>
         <v>BLEZ</v>
@@ -16157,8 +16329,12 @@
         <f>真值表!AO43</f>
         <v>0</v>
       </c>
+      <c r="AO43" s="43">
+        <f>真值表!AP43</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" hidden="1" spans="1:40">
+    <row r="44" spans="1:41">
       <c r="A44" s="24" t="str">
         <f>真值表!B44</f>
         <v>BGTZ</v>
@@ -16319,8 +16495,12 @@
         <f>真值表!AO44</f>
         <v>1</v>
       </c>
+      <c r="AO44" s="42">
+        <f>真值表!AP44</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" hidden="1" spans="1:40">
+    <row r="45" spans="1:41">
       <c r="A45" s="28" t="str">
         <f>真值表!B45</f>
         <v>BLTZ</v>
@@ -16481,8 +16661,12 @@
         <f>真值表!AO45</f>
         <v>1</v>
       </c>
+      <c r="AO45" s="43">
+        <f>真值表!AP45</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" hidden="1" spans="1:40">
+    <row r="46" spans="1:41">
       <c r="A46" s="24" t="str">
         <f>真值表!B46</f>
         <v>BGEZ</v>
@@ -16643,8 +16827,12 @@
         <f>真值表!AO46</f>
         <v>1</v>
       </c>
+      <c r="AO46" s="42">
+        <f>真值表!AP46</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" hidden="1" spans="1:40">
+    <row r="47" spans="1:41">
       <c r="A47" s="28">
         <f>真值表!B47</f>
         <v>0</v>
@@ -16805,8 +16993,12 @@
         <f>真值表!AO47</f>
         <v>0</v>
       </c>
+      <c r="AO47" s="43">
+        <f>真值表!AP47</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" hidden="1" spans="1:40">
+    <row r="48" spans="1:41">
       <c r="A48" s="24">
         <f>真值表!B48</f>
         <v>0</v>
@@ -16967,8 +17159,12 @@
         <f>真值表!AO48</f>
         <v>0</v>
       </c>
+      <c r="AO48" s="42">
+        <f>真值表!AP48</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" hidden="1" spans="1:40">
+    <row r="49" spans="1:41">
       <c r="A49" s="28">
         <f>真值表!B49</f>
         <v>0</v>
@@ -17129,8 +17325,12 @@
         <f>真值表!AO49</f>
         <v>0</v>
       </c>
+      <c r="AO49" s="43">
+        <f>真值表!AP49</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" hidden="1" spans="1:40">
+    <row r="50" spans="1:41">
       <c r="A50" s="24">
         <f>真值表!B50</f>
         <v>0</v>
@@ -17291,8 +17491,12 @@
         <f>真值表!AO50</f>
         <v>0</v>
       </c>
+      <c r="AO50" s="42">
+        <f>真值表!AP50</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" hidden="1" spans="1:40">
+    <row r="51" spans="1:41">
       <c r="A51" s="28">
         <f>真值表!B51</f>
         <v>0</v>
@@ -17453,8 +17657,12 @@
         <f>真值表!AO51</f>
         <v>0</v>
       </c>
+      <c r="AO51" s="43">
+        <f>真值表!AP51</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" hidden="1" spans="1:40">
+    <row r="52" spans="1:41">
       <c r="A52" s="24">
         <f>真值表!B52</f>
         <v>0</v>
@@ -17615,8 +17823,12 @@
         <f>真值表!AO52</f>
         <v>0</v>
       </c>
+      <c r="AO52" s="42">
+        <f>真值表!AP52</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:41">
       <c r="A53" s="28"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -17655,10 +17867,20 @@
       <c r="AJ53" s="43"/>
       <c r="AK53" s="43"/>
       <c r="AL53" s="43"/>
-      <c r="AM53" s="43"/>
-      <c r="AN53" s="43"/>
+      <c r="AM53" s="43">
+        <f>真值表!AN53</f>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="43">
+        <f>真值表!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="43">
+        <f>真值表!AP53</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:41">
       <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -17697,10 +17919,20 @@
       <c r="AJ54" s="42"/>
       <c r="AK54" s="42"/>
       <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
+      <c r="AM54" s="42">
+        <f>真值表!AN54</f>
+        <v>0</v>
+      </c>
+      <c r="AN54" s="42">
+        <f>真值表!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="AO54" s="42">
+        <f>真值表!AP54</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:41">
       <c r="A55" s="28"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
@@ -17739,10 +17971,20 @@
       <c r="AJ55" s="43"/>
       <c r="AK55" s="43"/>
       <c r="AL55" s="43"/>
-      <c r="AM55" s="43"/>
-      <c r="AN55" s="43"/>
+      <c r="AM55" s="43">
+        <f>真值表!AN55</f>
+        <v>0</v>
+      </c>
+      <c r="AN55" s="43">
+        <f>真值表!AO55</f>
+        <v>0</v>
+      </c>
+      <c r="AO55" s="43">
+        <f>真值表!AP55</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:41">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -17781,10 +18023,20 @@
       <c r="AJ56" s="42"/>
       <c r="AK56" s="42"/>
       <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
+      <c r="AM56" s="42">
+        <f>真值表!AN56</f>
+        <v>0</v>
+      </c>
+      <c r="AN56" s="42">
+        <f>真值表!AO56</f>
+        <v>0</v>
+      </c>
+      <c r="AO56" s="42">
+        <f>真值表!AP56</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:41">
       <c r="A57" s="28"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
@@ -17823,10 +18075,20 @@
       <c r="AJ57" s="43"/>
       <c r="AK57" s="43"/>
       <c r="AL57" s="43"/>
-      <c r="AM57" s="43"/>
-      <c r="AN57" s="43"/>
+      <c r="AM57" s="43">
+        <f>真值表!AN57</f>
+        <v>0</v>
+      </c>
+      <c r="AN57" s="43">
+        <f>真值表!AO57</f>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="43">
+        <f>真值表!AP57</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:41">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -17865,10 +18127,20 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
+      <c r="AM58" s="42">
+        <f>真值表!AN58</f>
+        <v>0</v>
+      </c>
+      <c r="AN58" s="42">
+        <f>真值表!AO58</f>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="42">
+        <f>真值表!AP58</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:41">
       <c r="A59" s="28"/>
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
@@ -17907,10 +18179,20 @@
       <c r="AJ59" s="43"/>
       <c r="AK59" s="43"/>
       <c r="AL59" s="43"/>
-      <c r="AM59" s="43"/>
-      <c r="AN59" s="43"/>
+      <c r="AM59" s="43">
+        <f>真值表!AN59</f>
+        <v>0</v>
+      </c>
+      <c r="AN59" s="43">
+        <f>真值表!AO59</f>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="43">
+        <f>真值表!AP59</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:41">
       <c r="A60" s="24"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
@@ -17949,10 +18231,20 @@
       <c r="AJ60" s="42"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
+      <c r="AM60" s="42">
+        <f>真值表!AN60</f>
+        <v>0</v>
+      </c>
+      <c r="AN60" s="42">
+        <f>真值表!AO60</f>
+        <v>0</v>
+      </c>
+      <c r="AO60" s="42">
+        <f>真值表!AP60</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:41">
       <c r="A61" s="28"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
@@ -17991,10 +18283,20 @@
       <c r="AJ61" s="43"/>
       <c r="AK61" s="43"/>
       <c r="AL61" s="43"/>
-      <c r="AM61" s="43"/>
-      <c r="AN61" s="43"/>
+      <c r="AM61" s="43">
+        <f>真值表!AN61</f>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="43">
+        <f>真值表!AO61</f>
+        <v>0</v>
+      </c>
+      <c r="AO61" s="43">
+        <f>真值表!AP61</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:41">
       <c r="A62" s="24"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -18033,10 +18335,20 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
       <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
+      <c r="AM62" s="42">
+        <f>真值表!AN62</f>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="42">
+        <f>真值表!AO62</f>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="42">
+        <f>真值表!AP62</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:41">
       <c r="A63" s="28"/>
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
@@ -18075,10 +18387,20 @@
       <c r="AJ63" s="43"/>
       <c r="AK63" s="43"/>
       <c r="AL63" s="43"/>
-      <c r="AM63" s="43"/>
-      <c r="AN63" s="43"/>
+      <c r="AM63" s="43">
+        <f>真值表!AN63</f>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="43">
+        <f>真值表!AO63</f>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="43">
+        <f>真值表!AP63</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:41">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -18117,10 +18439,20 @@
       <c r="AJ64" s="42"/>
       <c r="AK64" s="42"/>
       <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
+      <c r="AM64" s="42">
+        <f>真值表!AN64</f>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="42">
+        <f>真值表!AO64</f>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="42">
+        <f>真值表!AP64</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:41">
       <c r="A65" s="28"/>
       <c r="B65" s="29"/>
       <c r="C65" s="30"/>
@@ -18159,10 +18491,20 @@
       <c r="AJ65" s="43"/>
       <c r="AK65" s="43"/>
       <c r="AL65" s="43"/>
-      <c r="AM65" s="43"/>
-      <c r="AN65" s="43"/>
+      <c r="AM65" s="43">
+        <f>真值表!AN65</f>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="43">
+        <f>真值表!AO65</f>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="43">
+        <f>真值表!AP65</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:41">
       <c r="A66" s="24"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
@@ -18201,10 +18543,20 @@
       <c r="AJ66" s="42"/>
       <c r="AK66" s="42"/>
       <c r="AL66" s="42"/>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
+      <c r="AM66" s="42">
+        <f>真值表!AN66</f>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="42">
+        <f>真值表!AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="42">
+        <f>真值表!AP66</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:41">
       <c r="A67" s="28"/>
       <c r="B67" s="29"/>
       <c r="C67" s="30"/>
@@ -18243,10 +18595,20 @@
       <c r="AJ67" s="43"/>
       <c r="AK67" s="43"/>
       <c r="AL67" s="43"/>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="43"/>
+      <c r="AM67" s="43">
+        <f>真值表!AN67</f>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="43">
+        <f>真值表!AO67</f>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="43">
+        <f>真值表!AP67</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:41">
       <c r="A68" s="24"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
@@ -18285,10 +18647,20 @@
       <c r="AJ68" s="42"/>
       <c r="AK68" s="42"/>
       <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
+      <c r="AM68" s="42">
+        <f>真值表!AN68</f>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="42">
+        <f>真值表!AO68</f>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="42">
+        <f>真值表!AP68</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:41">
       <c r="A69" s="28"/>
       <c r="B69" s="29"/>
       <c r="C69" s="30"/>
@@ -18327,10 +18699,20 @@
       <c r="AJ69" s="43"/>
       <c r="AK69" s="43"/>
       <c r="AL69" s="43"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="43"/>
+      <c r="AM69" s="43">
+        <f>真值表!AN69</f>
+        <v>0</v>
+      </c>
+      <c r="AN69" s="43">
+        <f>真值表!AO69</f>
+        <v>0</v>
+      </c>
+      <c r="AO69" s="43">
+        <f>真值表!AP69</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:41">
       <c r="A70" s="24"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
@@ -18369,10 +18751,20 @@
       <c r="AJ70" s="42"/>
       <c r="AK70" s="42"/>
       <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
+      <c r="AM70" s="42">
+        <f>真值表!AN70</f>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="42">
+        <f>真值表!AO70</f>
+        <v>0</v>
+      </c>
+      <c r="AO70" s="42">
+        <f>真值表!AP70</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:41">
       <c r="A71" s="28"/>
       <c r="B71" s="29"/>
       <c r="C71" s="30"/>
@@ -18411,10 +18803,20 @@
       <c r="AJ71" s="43"/>
       <c r="AK71" s="43"/>
       <c r="AL71" s="43"/>
-      <c r="AM71" s="43"/>
-      <c r="AN71" s="43"/>
+      <c r="AM71" s="43">
+        <f>真值表!AN71</f>
+        <v>0</v>
+      </c>
+      <c r="AN71" s="43">
+        <f>真值表!AO71</f>
+        <v>0</v>
+      </c>
+      <c r="AO71" s="43">
+        <f>真值表!AP71</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:41">
       <c r="A72" s="24"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
@@ -18453,10 +18855,20 @@
       <c r="AJ72" s="42"/>
       <c r="AK72" s="42"/>
       <c r="AL72" s="42"/>
-      <c r="AM72" s="42"/>
-      <c r="AN72" s="42"/>
+      <c r="AM72" s="42">
+        <f>真值表!AN72</f>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="42">
+        <f>真值表!AO72</f>
+        <v>0</v>
+      </c>
+      <c r="AO72" s="42">
+        <f>真值表!AP72</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:41">
       <c r="A73" s="28"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
@@ -18495,10 +18907,20 @@
       <c r="AJ73" s="43"/>
       <c r="AK73" s="43"/>
       <c r="AL73" s="43"/>
-      <c r="AM73" s="43"/>
-      <c r="AN73" s="43"/>
+      <c r="AM73" s="43">
+        <f>真值表!AN73</f>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="43">
+        <f>真值表!AO73</f>
+        <v>0</v>
+      </c>
+      <c r="AO73" s="43">
+        <f>真值表!AP73</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:41">
       <c r="A74" s="24"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
@@ -18537,10 +18959,20 @@
       <c r="AJ74" s="42"/>
       <c r="AK74" s="42"/>
       <c r="AL74" s="42"/>
-      <c r="AM74" s="42"/>
-      <c r="AN74" s="42"/>
+      <c r="AM74" s="42">
+        <f>真值表!AN74</f>
+        <v>0</v>
+      </c>
+      <c r="AN74" s="42">
+        <f>真值表!AO74</f>
+        <v>0</v>
+      </c>
+      <c r="AO74" s="42">
+        <f>真值表!AP74</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:41">
       <c r="A75" s="28"/>
       <c r="B75" s="29"/>
       <c r="C75" s="30"/>
@@ -18579,10 +19011,20 @@
       <c r="AJ75" s="43"/>
       <c r="AK75" s="43"/>
       <c r="AL75" s="43"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="43"/>
+      <c r="AM75" s="43">
+        <f>真值表!AN75</f>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="43">
+        <f>真值表!AO75</f>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="43">
+        <f>真值表!AP75</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:41">
       <c r="A76" s="24"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
@@ -18621,10 +19063,20 @@
       <c r="AJ76" s="42"/>
       <c r="AK76" s="42"/>
       <c r="AL76" s="42"/>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
+      <c r="AM76" s="42">
+        <f>真值表!AN76</f>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="42">
+        <f>真值表!AO76</f>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="42">
+        <f>真值表!AP76</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:41">
       <c r="A77" s="28"/>
       <c r="B77" s="29"/>
       <c r="C77" s="30"/>
@@ -18663,10 +19115,20 @@
       <c r="AJ77" s="43"/>
       <c r="AK77" s="43"/>
       <c r="AL77" s="43"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="43"/>
+      <c r="AM77" s="43">
+        <f>真值表!AN77</f>
+        <v>0</v>
+      </c>
+      <c r="AN77" s="43">
+        <f>真值表!AO77</f>
+        <v>0</v>
+      </c>
+      <c r="AO77" s="43">
+        <f>真值表!AP77</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:41">
       <c r="A78" s="24"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -18705,10 +19167,20 @@
       <c r="AJ78" s="42"/>
       <c r="AK78" s="42"/>
       <c r="AL78" s="42"/>
-      <c r="AM78" s="42"/>
-      <c r="AN78" s="42"/>
+      <c r="AM78" s="42">
+        <f>真值表!AN78</f>
+        <v>0</v>
+      </c>
+      <c r="AN78" s="42">
+        <f>真值表!AO78</f>
+        <v>0</v>
+      </c>
+      <c r="AO78" s="42">
+        <f>真值表!AP78</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:41">
       <c r="A79" s="28"/>
       <c r="B79" s="29"/>
       <c r="C79" s="30"/>
@@ -18747,10 +19219,20 @@
       <c r="AJ79" s="43"/>
       <c r="AK79" s="43"/>
       <c r="AL79" s="43"/>
-      <c r="AM79" s="43"/>
-      <c r="AN79" s="43"/>
+      <c r="AM79" s="43">
+        <f>真值表!AN79</f>
+        <v>0</v>
+      </c>
+      <c r="AN79" s="43">
+        <f>真值表!AO79</f>
+        <v>0</v>
+      </c>
+      <c r="AO79" s="43">
+        <f>真值表!AP79</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:41">
       <c r="A80" s="24"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -18789,10 +19271,20 @@
       <c r="AJ80" s="42"/>
       <c r="AK80" s="42"/>
       <c r="AL80" s="42"/>
-      <c r="AM80" s="42"/>
-      <c r="AN80" s="42"/>
+      <c r="AM80" s="42">
+        <f>真值表!AN80</f>
+        <v>0</v>
+      </c>
+      <c r="AN80" s="42">
+        <f>真值表!AO80</f>
+        <v>0</v>
+      </c>
+      <c r="AO80" s="42">
+        <f>真值表!AP80</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:41">
       <c r="A81" s="28"/>
       <c r="B81" s="29"/>
       <c r="C81" s="30"/>
@@ -18831,19 +19323,24 @@
       <c r="AJ81" s="43"/>
       <c r="AK81" s="43"/>
       <c r="AL81" s="43"/>
-      <c r="AM81" s="43"/>
-      <c r="AN81" s="43"/>
+      <c r="AM81" s="43">
+        <f>真值表!AN81</f>
+        <v>0</v>
+      </c>
+      <c r="AN81" s="43">
+        <f>真值表!AO81</f>
+        <v>0</v>
+      </c>
+      <c r="AO81" s="43">
+        <f>真值表!AP81</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:C1" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <autoFilter ref="A1:AJ52">
-    <filterColumn colId="26">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="P1">
@@ -18861,12 +19358,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AL53:AL81">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AF52 Q82:AF1048576">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AJ52 AG82:AJ1048576">
+  <conditionalFormatting sqref="AG1:AJ52 AG82:AJ1048576 AO1">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -18876,7 +19378,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AN52 AL82:AN1048576 AM1:AN1">
+  <conditionalFormatting sqref="AL2:AO3 AL4:AL52 AL82:AN1048576 AM1:AN1 AM4:AO81">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -18891,11 +19393,6 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL53:AN81">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="B1"/>
@@ -18904,7 +19401,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T1 Q2 R2 S2 T2 Q3 R3 S3 T3 Q4 R4 S4 T4 Q5 R5 S5 T5 Q6 R6 S6 T6 Q7 R7 S7 T7 Q8 R8 S8 T8 Q9 R9 S9 T9 Q10 R10 S10 T10 Q11 R11 S11 T11 Q12 R12 S12 T12 Q13 R13 S13 T13 Q14 R14 S14 T14 Q15 R15 S15 T15 Q16 R16 S16 T16 Q17 R17 S17 T17 Q18 R18 S18 T18 Q19 R19 S19 T19 Q20 R20 S20 T20 Q21 R21 S21 T21 Q22 R22 S22 T22 Q23 R23 S23 T23 Q24 R24 S24 T24 Q25 R25 S25 T25 Q26 R26 S26 T26 Q27 R27 S27 T27 Q28 R28 S28 T28 Q29 R29 S29 T29 Q30 R30 S30 T30 Q31 R31 S31 T31 Q32 R32 S32 T32 Q33 R33 S33 T33 Q34 R34 S34 T34 Q35 R35 S35 T35 Q36 R36 S36 T36 Q37 R37 S37 T37 Q38 R38 S38 T38 Q39 R39 S39 T39 Q40 R40 S40 T40 Q41 R41 S41 T41 Q42 R42 S42 T42 Q43 R43 S43 T43 Q44 R44 S44 T44 Q45 R45 S45 T45 Q46 R46 S46 T46 Q47 R47 S47 T47 Q48 R48 S48 T48 Q49 R49 S49 T49 Q50 R50 S50 T50 Q51 R51 S51 T51 Q52 R52 S52 T52"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AE1 U2 V2 W2 X2 Y2 Z2 AA2 AB2 AC2 AD2 AE2 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 U4 V4 W4 X4 Y4 Z4 AA4 AB4 AC4 AD4 AE4 U5 V5 W5 X5 Y5 Z5 AA5 AB5 AC5 AD5 AE5 U6 V6 W6 X6 Y6 Z6 AA6 AB6 AC6 AD6 AE6 U7 V7 W7 X7 Y7 Z7 AA7 AB7 AC7 AD7 AE7 U8 V8 W8 X8 Y8 Z8 AA8 AB8 AC8 AD8 AE8 U9 V9 W9 X9 Y9 Z9 AA9 AB9 AC9 AD9 AE9 U10 V10 W10 X10 Y10 Z10 AA10 AB10 AC10 AD10 AE10 U11 V11 W11 X11 Y11 Z11 AA11 AB11 AC11 AD11 AE11 U12 V12 W12 X12 Y12 Z12 AA12 AB12 AC12 AD12 AE12 U13 V13 W13 X13 Y13 Z13 AA13 AB13 AC13 AD13 AE13 U14 V14 W14 X14 Y14 Z14 AA14 AB14 AC14 AD14 AE14 U15 V15 W15 X15 Y15 Z15 AA15 AB15 AC15 AD15 AE15 U16 V16 W16 X16 Y16 Z16 AA16 AB16 AC16 AD16 AE16 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 AD17 AE17 U18 V18 W18 X18 Y18 Z18 AA18 AB18 AC18 AD18 AE18 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 AD19 AE19 U20 V20 W20 X20 Y20 Z20 AA20 AB20 AC20 AD20 AE20 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 AD21 AE21 U22 V22 W22 X22 Y22 Z22 AA22 AB22 AC22 AD22 AE22 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 AD23 AE23 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24 AD24 AE24 U25 V25 W25 X25 Y25 Z25 AA25 AB25 AC25 AD25 AE25 U26 V26 W26 X26 Y26 Z26 AA26 AB26 AC26 AD26 AE26 U27 V27 W27 X27 Y27 Z27 AA27 AB27 AC27 AD27 AE27 U28 V28 W28 X28 Y28 Z28 AA28 AB28 AC28 AD28 AE28 U29 V29 W29 X29 Y29 Z29 AA29 AB29 AC29 AD29 AE29 U30 V30 W30 X30 Y30 Z30 AA30 AB30 AC30 AD30 AE30 U31 V31 W31 X31 Y31 Z31 AA31 AB31 AC31 AD31 AE31 U32 V32 W32 X32 Y32 Z32 AA32 AB32 AC32 AD32 AE32 U33 V33 W33 X33 Y33 Z33 AA33 AB33 AC33 AD33 AE33 U34 V34 W34 X34 Y34 Z34 AA34 AB34 AC34 AD34 AE34 U35 V35 W35 X35 Y35 Z35 AA35 AB35 AC35 AD35 AE35 U36 V36 W36 X36 Y36 Z36 AA36 AB36 AC36 AD36 AE36 U37 V37 W37 X37 Y37 Z37 AA37 AB37 AC37 AD37 AE37 U38 V38 W38 X38 Y38 Z38 AA38 AB38 AC38 AD38 AE38 U39 V39 W39 X39 Y39 Z39 AA39 AB39 AC39 AD39 AE39 U40 V40 W40 X40 Y40 Z40 AA40 AB40 AC40 AD40 AE40 U41 V41 W41 X41 Y41 Z41 AA41 AB41 AC41 AD41 AE41 U42 V42 W42 X42 Y42 Z42 AA42 AB42 AC42 AD42 AE42 U43 V43 W43 X43 Y43 Z43 AA43 AB43 AC43 AD43 AE43 U44 V44 W44 X44 Y44 Z44 AA44 AB44 AC44 AD44 AE44 U45 V45 W45 X45 Y45 Z45 AA45 AB45 AC45 AD45 AE45 U46 V46 W46 X46 Y46 Z46 AA46 AB46 AC46 AD46 AE46 U47 V47 W47 X47 Y47 Z47 AA47 AB47 AC47 AD47 AE47 U48 V48 W48 X48 Y48 Z48 AA48 AB48 AC48 AD48 AE48 U49 V49 W49 X49 Y49 Z49 AA49 AB49 AC49 AD49 AE49 U50 V50 W50 X50 Y50 Z50 AA50 AB50 AC50 AD50 AE50 U51 V51 W51 X51 Y51 Z51 AA51 AB51 AC51 AD51 AE51 U52 V52 W52 X52 Y52 Z52 AA52 AB52 AC52 AD52 AE52 U53:AE1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF1 AF2 AF3 AF4 AF5 AF6 AF7 AF8 AF9 AF10 AF11 AF12 AF13 AF14 AF15 AF16 AF17 AF18 AF19 AF20 AF21 AF22 AF23 AF24 AF25 AF26 AF27 AF28 AF29 AF30 AF31 AF32 AF33 AF34 AF35 AF36 AF37 AF38 AF39 AF40 AF41 AF42 AF43 AF44 AF45 AF46 AF47 AF48 AF49 AF50 AF51 AF52 AF53:AF1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AN1 AG2 AH2 AI2 AJ2 AK2 AL2 AM2 AN2 AG3 AH3 AI3 AJ3 AK3 AL3 AM3 AN3 AG4 AH4 AI4 AJ4 AK4 AL4 AM4 AN4 AG5 AH5 AI5 AJ5 AK5 AL5 AM5 AN5 AG6 AH6 AI6 AJ6 AK6 AL6 AM6 AN6 AG7 AH7 AI7 AJ7 AK7 AL7 AM7 AN7 AG8 AH8 AI8 AJ8 AK8 AL8 AM8 AN8 AG9 AH9 AI9 AJ9 AK9 AL9 AM9 AN9 AG10 AH10 AI10 AJ10 AK10 AL10 AM10 AN10 AG11 AH11 AI11 AJ11 AK11 AL11 AM11 AN11 AG12 AH12 AI12 AJ12 AK12 AL12 AM12 AN12 AG13 AH13 AI13 AJ13 AK13 AL13 AM13 AN13 AG14 AH14 AI14 AJ14 AK14 AL14 AM14 AN14 AG15 AH15 AI15 AJ15 AK15 AL15 AM15 AN15 AG16 AH16 AI16 AJ16 AK16 AL16 AM16 AN16 AG17 AH17 AI17 AJ17 AK17 AL17 AM17 AN17 AG18 AH18 AI18 AJ18 AK18 AL18 AM18 AN18 AG19 AH19 AI19 AJ19 AK19 AL19 AM19 AN19 AG20 AH20 AI20 AJ20 AK20 AL20 AM20 AN20 AG21 AH21 AI21 AJ21 AK21 AL21 AM21 AN21 AG22 AH22 AI22 AJ22 AK22 AL22 AM22 AN22 AG23 AH23 AI23 AJ23 AK23 AL23 AM23 AN23 AG24 AH24 AI24 AJ24 AK24 AL24 AM24 AN24 AG25 AH25 AI25 AJ25 AK25 AL25 AM25 AN25 AG26 AH26 AI26 AJ26 AK26 AL26 AM26 AN26 AG27 AH27 AI27 AJ27 AK27 AL27 AM27 AN27 AG28 AH28 AI28 AJ28 AK28 AL28 AM28 AN28 AG29 AH29 AI29 AJ29 AK29 AL29 AM29 AN29 AG30 AH30 AI30 AJ30 AK30 AL30 AM30 AN30 AG31 AH31 AI31 AJ31 AK31 AL31 AM31 AN31 AG32 AH32 AI32 AJ32 AK32 AL32 AM32 AN32 AG33 AH33 AI33 AJ33 AK33 AL33 AM33 AN33 AG34 AH34 AI34 AJ34 AK34 AL34 AM34 AN34 AG35 AH35 AI35 AJ35 AK35 AL35 AM35 AN35 AG36 AH36 AI36 AJ36 AK36 AL36 AM36 AN36 AG37 AH37 AI37 AJ37 AK37 AL37 AM37 AN37 AG38 AH38 AI38 AJ38 AK38 AL38 AM38 AN38 AG39 AH39 AI39 AJ39 AK39 AL39 AM39 AN39 AG40 AH40 AI40 AJ40 AK40 AL40 AM40 AN40 AG41 AH41 AI41 AJ41 AK41 AL41 AM41 AN41 AG42 AH42 AI42 AJ42 AK42 AL42 AM42 AN42 AG43 AH43 AI43 AJ43 AK43 AL43 AM43 AN43 AG44 AH44 AI44 AJ44 AK44 AL44 AM44 AN44 AG45 AH45 AI45 AJ45 AK45 AL45 AM45 AN45 AG46 AH46 AI46 AJ46 AK46 AL46 AM46 AN46 AG47 AH47 AI47 AJ47 AK47 AL47 AM47 AN47 AG48 AH48 AI48 AJ48 AK48 AL48 AM48 AN48 AG49 AH49 AI49 AJ49 AK49 AL49 AM49 AN49 AG50 AH50 AI50 AJ50 AK50 AL50 AM50 AN50 AG51 AH51 AI51 AJ51 AK51 AL51 AM51 AN51 AG52 AH52 AI52 AJ52 AK52 AL52 AM52 AN52 AG53:AN1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AI1 AJ1:AO1 AG2 AH2 AI2 AJ2 AK2 AL2 AG3 AH3 AI3 AJ3 AK3 AL3 AG4 AH4 AI4 AJ4 AK4 AL4 AG5 AH5 AI5 AJ5 AK5 AL5 AG6 AH6 AI6 AJ6 AK6 AL6 AG7 AH7 AI7 AJ7 AK7 AL7 AG8 AH8 AI8 AJ8 AK8 AL8 AG9 AH9 AI9 AJ9 AK9 AL9 AG10 AH10 AI10 AJ10 AK10 AL10 AG11 AH11 AI11 AJ11 AK11 AL11 AG12 AH12 AI12 AJ12 AK12 AL12 AG13 AH13 AI13 AJ13 AK13 AL13 AG14 AH14 AI14 AJ14 AK14 AL14 AG15 AH15 AI15 AJ15 AK15 AL15 AG16 AH16 AI16 AJ16 AK16 AL16 AG17 AH17 AI17 AJ17 AK17 AL17 AG18 AH18 AI18 AJ18 AK18 AL18 AG19 AH19 AI19 AJ19 AK19 AL19 AG20 AH20 AI20 AJ20 AK20 AL20 AG21 AH21 AI21 AJ21 AK21 AL21 AG22 AH22 AI22 AJ22 AK22 AL22 AG23 AH23 AI23 AJ23 AK23 AL23 AG24 AH24 AI24 AJ24 AK24 AL24 AG25 AH25 AI25 AJ25 AK25 AL25 AG26 AH26 AI26 AJ26 AK26 AL26 AG27 AH27 AI27 AJ27 AK27 AL27 AG28 AH28 AI28 AJ28 AK28 AL28 AG29 AH29 AI29 AJ29 AK29 AL29 AG30 AH30 AI30 AJ30 AK30 AL30 AG31 AH31 AI31 AJ31 AK31 AL31 AG32 AH32 AI32 AJ32 AK32 AL32 AG33 AH33 AI33 AJ33 AK33 AL33 AG34 AH34 AI34 AJ34 AK34 AL34 AG35 AH35 AI35 AJ35 AK35 AL35 AG36 AH36 AI36 AJ36 AK36 AL36 AG37 AH37 AI37 AJ37 AK37 AL37 AG38 AH38 AI38 AJ38 AK38 AL38 AG39 AH39 AI39 AJ39 AK39 AL39 AG40 AH40 AI40 AJ40 AK40 AL40 AG41 AH41 AI41 AJ41 AK41 AL41 AG42 AH42 AI42 AJ42 AK42 AL42 AG43 AH43 AI43 AJ43 AK43 AL43 AG44 AH44 AI44 AJ44 AK44 AL44 AG45 AH45 AI45 AJ45 AK45 AL45 AG46 AH46 AI46 AJ46 AK46 AL46 AG47 AH47 AI47 AJ47 AK47 AL47 AG48 AH48 AI48 AJ48 AK48 AL48 AG49 AH49 AI49 AJ49 AK49 AL49 AG50 AH50 AI50 AJ50 AK50 AL50 AG51 AH51 AI51 AJ51 AK51 AL51 AG52 AH52 AI52 AJ52 AK52 AL52 AG53:AL81 AG82:AN1048576 AM2:AO81"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q53:T1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单周期硬布线控制器表达式自动生成.xlsx
+++ b/单周期硬布线控制器表达式自动生成.xlsx
@@ -902,10 +902,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1063,16 +1063,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,23 +1087,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,14 +1095,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1134,39 +1155,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1178,23 +1169,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,31 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1323,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1413,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,115 +1473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,26 +1689,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,50 +1756,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1786,151 +1771,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2455,8 +2455,8 @@
   </sheetPr>
   <dimension ref="A1:AS61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AD45" sqref="AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4352,7 +4352,9 @@
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
+      <c r="AA17" s="28">
+        <v>1</v>
+      </c>
       <c r="AB17" s="28"/>
       <c r="AC17" s="28">
         <v>1</v>
@@ -4461,7 +4463,9 @@
       </c>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
+      <c r="AA18" s="24">
+        <v>1</v>
+      </c>
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24">
@@ -7240,7 +7244,9 @@
       <c r="X43" s="28"/>
       <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
+      <c r="AA43" s="28">
+        <v>1</v>
+      </c>
       <c r="AB43" s="28"/>
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
@@ -7347,7 +7353,9 @@
       <c r="X44" s="24"/>
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
+      <c r="AA44" s="24">
+        <v>1</v>
+      </c>
       <c r="AB44" s="24"/>
       <c r="AC44" s="24"/>
       <c r="AD44" s="24"/>
@@ -7454,7 +7462,9 @@
       <c r="X45" s="28"/>
       <c r="Y45" s="28"/>
       <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
+      <c r="AA45" s="28">
+        <v>1</v>
+      </c>
       <c r="AB45" s="28"/>
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
@@ -7563,7 +7573,9 @@
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
+      <c r="AA46" s="24">
+        <v>1</v>
+      </c>
       <c r="AB46" s="24"/>
       <c r="AC46" s="24"/>
       <c r="AD46" s="24"/>
@@ -9176,8 +9188,8 @@
   </sheetPr>
   <dimension ref="A1:AO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="AQ77" sqref="AQ77"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9192,8 +9204,10 @@
     <col min="16" max="16" width="57.375" style="19" customWidth="1"/>
     <col min="17" max="20" width="4.625" style="19" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="11" hidden="1" customWidth="1"/>
-    <col min="22" max="32" width="9" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9" style="20" hidden="1" customWidth="1"/>
+    <col min="22" max="30" width="9" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="13.25" customWidth="1"/>
+    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="33" max="33" width="19.125" style="20" customWidth="1"/>
     <col min="34" max="34" width="6.75" style="20" customWidth="1"/>
     <col min="35" max="35" width="5" style="20" customWidth="1"/>
     <col min="36" max="36" width="9.125" style="20" customWidth="1"/>
@@ -11955,7 +11969,7 @@
       </c>
       <c r="Z17" s="39">
         <f>真值表!AA17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="39">
         <f>真值表!AB17</f>
@@ -12121,7 +12135,7 @@
       </c>
       <c r="Z18" s="38">
         <f>真值表!AA18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="38">
         <f>真值表!AB18</f>
@@ -16271,7 +16285,7 @@
       </c>
       <c r="Z43" s="39">
         <f>真值表!AA43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="39">
         <f>真值表!AB43</f>
@@ -16437,7 +16451,7 @@
       </c>
       <c r="Z44" s="38">
         <f>真值表!AA44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="38">
         <f>真值表!AB44</f>
@@ -16603,7 +16617,7 @@
       </c>
       <c r="Z45" s="39">
         <f>真值表!AA45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="39">
         <f>真值表!AB45</f>
@@ -16769,7 +16783,7 @@
       </c>
       <c r="Z46" s="38">
         <f>真值表!AA46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="38">
         <f>真值表!AB46</f>

--- a/单周期硬布线控制器表达式自动生成.xlsx
+++ b/单周期硬布线控制器表达式自动生成.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>#</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>逻辑表达式最小项</t>
+  </si>
+  <si>
+    <t>R1_Used</t>
+  </si>
+  <si>
+    <t>R2_Used</t>
   </si>
   <si>
     <t>十进制</t>
@@ -902,9 +908,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
@@ -1057,7 +1063,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,6 +1090,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1078,16 +1121,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,51 +1153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,7 +1162,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,14 +1184,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1185,16 +1191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,7 +1305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,13 +1323,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,55 +1449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,13 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,73 +1479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,6 +1704,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1739,39 +1778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1789,148 +1795,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9186,10 +9192,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AQ47" sqref="AQ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9201,20 +9207,21 @@
     <col min="5" max="13" width="4.625" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.25" style="19" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="4.625" style="19" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="57.375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="19" customWidth="1"/>
     <col min="17" max="20" width="4.625" style="19" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="11" hidden="1" customWidth="1"/>
     <col min="22" max="30" width="9" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="13.25" customWidth="1"/>
-    <col min="32" max="32" width="11.875" customWidth="1"/>
-    <col min="33" max="33" width="19.125" style="20" customWidth="1"/>
-    <col min="34" max="34" width="6.75" style="20" customWidth="1"/>
-    <col min="35" max="35" width="5" style="20" customWidth="1"/>
-    <col min="36" max="36" width="9.125" style="20" customWidth="1"/>
-    <col min="37" max="40" width="9" style="20"/>
+    <col min="31" max="31" width="13.25" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="7.625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="19.125" style="20" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.75" style="20" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="5" style="20" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="9.125" style="20" hidden="1" customWidth="1"/>
+    <col min="37" max="40" width="9" style="20" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="22.5" spans="1:41">
+    <row r="1" s="18" customFormat="1" ht="22.5" spans="1:46">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -9375,8 +9382,26 @@
         <f>真值表!AP1</f>
         <v>B_BRANCH0</v>
       </c>
+      <c r="AP1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="41" t="str">
+        <f>真值表!AS1</f>
+        <v>XXX</v>
+      </c>
+      <c r="AS1" s="41">
+        <f>真值表!AT1</f>
+        <v>0</v>
+      </c>
+      <c r="AT1" s="41">
+        <f>真值表!AU1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:46">
       <c r="A2" s="24" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -9541,8 +9566,27 @@
         <f>真值表!AP2</f>
         <v>0</v>
       </c>
+      <c r="AP2" s="42">
+        <f>真值表!AQ2</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="42">
+        <f>真值表!AS2</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="42">
+        <f>真值表!AT2</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="42">
+        <f>真值表!AU2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:46">
       <c r="A3" s="28" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -9707,8 +9751,27 @@
         <f>真值表!AP3</f>
         <v>0</v>
       </c>
+      <c r="AP3" s="43">
+        <f>真值表!AQ3</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="43">
+        <f>真值表!AS3</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="43">
+        <f>真值表!AT3</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="43">
+        <f>真值表!AU3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:46">
       <c r="A4" s="24" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -9873,8 +9936,27 @@
         <f>真值表!AP4</f>
         <v>0</v>
       </c>
+      <c r="AP4" s="42">
+        <f>真值表!AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="42">
+        <f>真值表!AS4</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="42">
+        <f>真值表!AT4</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="42">
+        <f>真值表!AU4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:46">
       <c r="A5" s="28" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -10023,24 +10105,42 @@
         <f>真值表!AL5</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="43">
+      <c r="AL5" s="41">
         <f>真值表!AM5</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="43">
+      <c r="AM5" s="41">
         <f>真值表!AN5</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="43">
+      <c r="AN5" s="41">
         <f>真值表!AO5</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="43">
+      <c r="AO5" s="41">
         <f>真值表!AP5</f>
         <v>0</v>
       </c>
+      <c r="AP5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="41">
+        <f>真值表!AS5</f>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="41">
+        <f>真值表!AT5</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="41">
+        <f>真值表!AU5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:46">
       <c r="A6" s="24" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -10205,8 +10305,26 @@
         <f>真值表!AP6</f>
         <v>0</v>
       </c>
+      <c r="AP6" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="42">
+        <f>真值表!AS6</f>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="42">
+        <f>真值表!AT6</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="42">
+        <f>真值表!AU6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:46">
       <c r="A7" s="28" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -10371,8 +10489,26 @@
         <f>真值表!AP7</f>
         <v>0</v>
       </c>
+      <c r="AP7" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="43">
+        <f>真值表!AS7</f>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="43">
+        <f>真值表!AT7</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="43">
+        <f>真值表!AU7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:46">
       <c r="A8" s="24" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -10537,8 +10673,26 @@
         <f>真值表!AP8</f>
         <v>0</v>
       </c>
+      <c r="AP8" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="42">
+        <f>真值表!AS8</f>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="42">
+        <f>真值表!AT8</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="42">
+        <f>真值表!AU8</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:46">
       <c r="A9" s="28" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -10687,24 +10841,42 @@
         <f>真值表!AL9</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="43">
+      <c r="AL9" s="41">
         <f>真值表!AM9</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="43">
+      <c r="AM9" s="41">
         <f>真值表!AN9</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="43">
+      <c r="AN9" s="41">
         <f>真值表!AO9</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="43">
+      <c r="AO9" s="41">
         <f>真值表!AP9</f>
         <v>0</v>
       </c>
+      <c r="AP9" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="41">
+        <f>真值表!AS9</f>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="41">
+        <f>真值表!AT9</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="41">
+        <f>真值表!AU9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:46">
       <c r="A10" s="24" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -10869,8 +11041,26 @@
         <f>真值表!AP10</f>
         <v>0</v>
       </c>
+      <c r="AP10" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="42">
+        <f>真值表!AS10</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="42">
+        <f>真值表!AT10</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="42">
+        <f>真值表!AU10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:46">
       <c r="A11" s="28" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -11035,8 +11225,23 @@
         <f>真值表!AP11</f>
         <v>0</v>
       </c>
+      <c r="AP11" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43">
+        <f>真值表!AT11</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="43">
+        <f>真值表!AU11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:46">
       <c r="A12" s="24" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -11201,8 +11406,26 @@
         <f>真值表!AP12</f>
         <v>0</v>
       </c>
+      <c r="AP12" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="42">
+        <f>真值表!AS12</f>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="42">
+        <f>真值表!AT12</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="42">
+        <f>真值表!AU12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:46">
       <c r="A13" s="28" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -11351,24 +11574,43 @@
         <f>真值表!AL13</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="43">
+      <c r="AL13" s="41">
         <f>真值表!AM13</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="43">
+      <c r="AM13" s="41">
         <f>真值表!AN13</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="43">
+      <c r="AN13" s="41">
         <f>真值表!AO13</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="43">
+      <c r="AO13" s="41">
         <f>真值表!AP13</f>
         <v>0</v>
       </c>
+      <c r="AP13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="41">
+        <f>真值表!AR13</f>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="41">
+        <f>真值表!AS13</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="41">
+        <f>真值表!AT13</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="41">
+        <f>真值表!AU13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:46">
       <c r="A14" s="24" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -11533,8 +11775,26 @@
         <f>真值表!AP14</f>
         <v>0</v>
       </c>
+      <c r="AP14" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="42">
+        <f>真值表!AS14</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="42">
+        <f>真值表!AT14</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="42">
+        <f>真值表!AU14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:46">
       <c r="A15" s="28" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -11699,8 +11959,28 @@
         <f>真值表!AP15</f>
         <v>0</v>
       </c>
+      <c r="AP15" s="43">
+        <f>真值表!AQ15</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="43">
+        <f>真值表!AR15</f>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="43">
+        <f>真值表!AS15</f>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="43">
+        <f>真值表!AT15</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="43">
+        <f>真值表!AU15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:46">
       <c r="A16" s="24" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -11865,8 +12145,28 @@
         <f>真值表!AP16</f>
         <v>0</v>
       </c>
+      <c r="AP16" s="42">
+        <f>真值表!AQ16</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="42">
+        <f>真值表!AR16</f>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="42">
+        <f>真值表!AS16</f>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="42">
+        <f>真值表!AT16</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="42">
+        <f>真值表!AU16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:46">
       <c r="A17" s="28" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -12015,24 +12315,42 @@
         <f>真值表!AL17</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="43">
+      <c r="AL17" s="41">
         <f>真值表!AM17</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="43">
+      <c r="AM17" s="41">
         <f>真值表!AN17</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="43">
+      <c r="AN17" s="41">
         <f>真值表!AO17</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="43">
+      <c r="AO17" s="41">
         <f>真值表!AP17</f>
         <v>0</v>
       </c>
+      <c r="AP17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="41">
+        <f>真值表!AS17</f>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="41">
+        <f>真值表!AT17</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="41">
+        <f>真值表!AU17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:46">
       <c r="A18" s="24" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -12197,8 +12515,26 @@
         <f>真值表!AP18</f>
         <v>0</v>
       </c>
+      <c r="AP18" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="42">
+        <f>真值表!AS18</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="42">
+        <f>真值表!AT18</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="42">
+        <f>真值表!AU18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:46">
       <c r="A19" s="28" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -12363,8 +12699,24 @@
         <f>真值表!AP19</f>
         <v>0</v>
       </c>
+      <c r="AP19" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43">
+        <f>真值表!AS19</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="43">
+        <f>真值表!AT19</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="43">
+        <f>真值表!AU19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:46">
       <c r="A20" s="24" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -12529,8 +12881,24 @@
         <f>真值表!AP20</f>
         <v>0</v>
       </c>
+      <c r="AP20" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42">
+        <f>真值表!AS20</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="42">
+        <f>真值表!AT20</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="42">
+        <f>真值表!AU20</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:46">
       <c r="A21" s="28" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -12679,24 +13047,43 @@
         <f>真值表!AL21</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="43">
+      <c r="AL21" s="41">
         <f>真值表!AM21</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="43">
+      <c r="AM21" s="41">
         <f>真值表!AN21</f>
         <v>0</v>
       </c>
-      <c r="AN21" s="43">
+      <c r="AN21" s="41">
         <f>真值表!AO21</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="43">
+      <c r="AO21" s="41">
         <f>真值表!AP21</f>
         <v>0</v>
       </c>
+      <c r="AP21" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="41">
+        <f>真值表!AR21</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="41">
+        <f>真值表!AS21</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="41">
+        <f>真值表!AT21</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="41">
+        <f>真值表!AU21</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:46">
       <c r="A22" s="24" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -12861,8 +13248,27 @@
         <f>真值表!AP22</f>
         <v>0</v>
       </c>
+      <c r="AP22" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="42">
+        <f>真值表!AR22</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="42">
+        <f>真值表!AS22</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="42">
+        <f>真值表!AT22</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="42">
+        <f>真值表!AU22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:46">
       <c r="A23" s="28" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -13027,8 +13433,27 @@
         <f>真值表!AP23</f>
         <v>0</v>
       </c>
+      <c r="AP23" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="43">
+        <f>真值表!AR23</f>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="43">
+        <f>真值表!AS23</f>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="43">
+        <f>真值表!AT23</f>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="43">
+        <f>真值表!AU23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:46">
       <c r="A24" s="24" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -13193,8 +13618,27 @@
         <f>真值表!AP24</f>
         <v>0</v>
       </c>
+      <c r="AP24" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="42">
+        <f>真值表!AR24</f>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="42">
+        <f>真值表!AS24</f>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="42">
+        <f>真值表!AT24</f>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="42">
+        <f>真值表!AU24</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:46">
       <c r="A25" s="28" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -13343,24 +13787,43 @@
         <f>真值表!AL25</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="43">
+      <c r="AL25" s="41">
         <f>真值表!AM25</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="43">
+      <c r="AM25" s="41">
         <f>真值表!AN25</f>
         <v>0</v>
       </c>
-      <c r="AN25" s="43">
+      <c r="AN25" s="41">
         <f>真值表!AO25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="43">
+      <c r="AO25" s="41">
         <f>真值表!AP25</f>
         <v>0</v>
       </c>
+      <c r="AP25" s="41">
+        <f>真值表!AQ25</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="41">
+        <f>真值表!AS25</f>
+        <v>0</v>
+      </c>
+      <c r="AS25" s="41">
+        <f>真值表!AT25</f>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="41">
+        <f>真值表!AU25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:46">
       <c r="A26" s="24" t="str">
         <f>真值表!B26</f>
         <v>SLLV</v>
@@ -13525,8 +13988,26 @@
         <f>真值表!AP26</f>
         <v>0</v>
       </c>
+      <c r="AP26" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="42">
+        <f>真值表!AS26</f>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="42">
+        <f>真值表!AT26</f>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="42">
+        <f>真值表!AU26</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:46">
       <c r="A27" s="28" t="str">
         <f>真值表!B27</f>
         <v>SRLV</v>
@@ -13691,8 +14172,26 @@
         <f>真值表!AP27</f>
         <v>0</v>
       </c>
+      <c r="AP27" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="43">
+        <f>真值表!AS27</f>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="43">
+        <f>真值表!AT27</f>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="43">
+        <f>真值表!AU27</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:46">
       <c r="A28" s="24" t="str">
         <f>真值表!B28</f>
         <v>SRAV</v>
@@ -13857,8 +14356,26 @@
         <f>真值表!AP28</f>
         <v>0</v>
       </c>
+      <c r="AP28" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="42">
+        <f>真值表!AS28</f>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="42">
+        <f>真值表!AT28</f>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="42">
+        <f>真值表!AU28</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:46">
       <c r="A29" s="28" t="str">
         <f>真值表!B29</f>
         <v>SUBU</v>
@@ -14007,24 +14524,42 @@
         <f>真值表!AL29</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="43">
+      <c r="AL29" s="41">
         <f>真值表!AM29</f>
         <v>0</v>
       </c>
-      <c r="AM29" s="43">
+      <c r="AM29" s="41">
         <f>真值表!AN29</f>
         <v>0</v>
       </c>
-      <c r="AN29" s="43">
+      <c r="AN29" s="41">
         <f>真值表!AO29</f>
         <v>0</v>
       </c>
-      <c r="AO29" s="43">
+      <c r="AO29" s="41">
         <f>真值表!AP29</f>
         <v>0</v>
       </c>
+      <c r="AP29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="41">
+        <f>真值表!AS29</f>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="41">
+        <f>真值表!AT29</f>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="41">
+        <f>真值表!AU29</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:46">
       <c r="A30" s="24" t="str">
         <f>真值表!B30</f>
         <v>XOR</v>
@@ -14189,8 +14724,26 @@
         <f>真值表!AP30</f>
         <v>0</v>
       </c>
+      <c r="AP30" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="42">
+        <f>真值表!AS30</f>
+        <v>0</v>
+      </c>
+      <c r="AS30" s="42">
+        <f>真值表!AT30</f>
+        <v>0</v>
+      </c>
+      <c r="AT30" s="42">
+        <f>真值表!AU30</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:46">
       <c r="A31" s="28" t="str">
         <f>真值表!B31</f>
         <v>XORI</v>
@@ -14355,8 +14908,26 @@
         <f>真值表!AP31</f>
         <v>0</v>
       </c>
+      <c r="AP31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="43">
+        <f>真值表!AS31</f>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="43">
+        <f>真值表!AT31</f>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="43">
+        <f>真值表!AU31</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:46">
       <c r="A32" s="24" t="str">
         <f>真值表!B32</f>
         <v>LUI</v>
@@ -14521,8 +15092,28 @@
         <f>真值表!AP32</f>
         <v>0</v>
       </c>
+      <c r="AP32" s="42">
+        <f>真值表!AQ32</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="42">
+        <f>真值表!AR32</f>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="42">
+        <f>真值表!AS32</f>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="42">
+        <f>真值表!AT32</f>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="42">
+        <f>真值表!AU32</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:46">
       <c r="A33" s="28" t="str">
         <f>真值表!B33</f>
         <v>SLTIU</v>
@@ -14671,24 +15262,43 @@
         <f>真值表!AL33</f>
         <v>0</v>
       </c>
-      <c r="AL33" s="43">
+      <c r="AL33" s="41">
         <f>真值表!AM33</f>
         <v>0</v>
       </c>
-      <c r="AM33" s="43">
+      <c r="AM33" s="41">
         <f>真值表!AN33</f>
         <v>0</v>
       </c>
-      <c r="AN33" s="43">
+      <c r="AN33" s="41">
         <f>真值表!AO33</f>
         <v>0</v>
       </c>
-      <c r="AO33" s="43">
+      <c r="AO33" s="41">
         <f>真值表!AP33</f>
         <v>0</v>
       </c>
+      <c r="AP33" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="41">
+        <f>真值表!AR33</f>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="41">
+        <f>真值表!AS33</f>
+        <v>0</v>
+      </c>
+      <c r="AS33" s="41">
+        <f>真值表!AT33</f>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="41">
+        <f>真值表!AU33</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:46">
       <c r="A34" s="24" t="str">
         <f>真值表!B34</f>
         <v>MULTU</v>
@@ -14853,8 +15463,26 @@
         <f>真值表!AP34</f>
         <v>0</v>
       </c>
+      <c r="AP34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="42">
+        <f>真值表!AS34</f>
+        <v>0</v>
+      </c>
+      <c r="AS34" s="42">
+        <f>真值表!AT34</f>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="42">
+        <f>真值表!AU34</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:46">
       <c r="A35" s="28" t="str">
         <f>真值表!B35</f>
         <v>DIVU</v>
@@ -15019,8 +15647,26 @@
         <f>真值表!AP35</f>
         <v>0</v>
       </c>
+      <c r="AP35" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="43">
+        <f>真值表!AS35</f>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="43">
+        <f>真值表!AT35</f>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="43">
+        <f>真值表!AU35</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:46">
       <c r="A36" s="24" t="str">
         <f>真值表!B36</f>
         <v>MFLO</v>
@@ -15185,8 +15831,28 @@
         <f>真值表!AP36</f>
         <v>0</v>
       </c>
+      <c r="AP36" s="42">
+        <f>真值表!AQ36</f>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="42">
+        <f>真值表!AR36</f>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="42">
+        <f>真值表!AS36</f>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="42">
+        <f>真值表!AT36</f>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="42">
+        <f>真值表!AU36</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:46">
       <c r="A37" s="28" t="str">
         <f>真值表!B37</f>
         <v>LB</v>
@@ -15335,24 +16001,43 @@
         <f>真值表!AL37</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="43">
+      <c r="AL37" s="41">
         <f>真值表!AM37</f>
         <v>1</v>
       </c>
-      <c r="AM37" s="43">
+      <c r="AM37" s="41">
         <f>真值表!AN37</f>
         <v>1</v>
       </c>
-      <c r="AN37" s="43">
+      <c r="AN37" s="41">
         <f>真值表!AO37</f>
         <v>0</v>
       </c>
-      <c r="AO37" s="43">
+      <c r="AO37" s="41">
         <f>真值表!AP37</f>
         <v>0</v>
       </c>
+      <c r="AP37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="41">
+        <f>真值表!AR37</f>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="41">
+        <f>真值表!AS37</f>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="41">
+        <f>真值表!AT37</f>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="41">
+        <f>真值表!AU37</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:46">
       <c r="A38" s="24" t="str">
         <f>真值表!B38</f>
         <v>LBU</v>
@@ -15517,8 +16202,27 @@
         <f>真值表!AP38</f>
         <v>0</v>
       </c>
+      <c r="AP38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="42">
+        <f>真值表!AR38</f>
+        <v>0</v>
+      </c>
+      <c r="AR38" s="42">
+        <f>真值表!AS38</f>
+        <v>0</v>
+      </c>
+      <c r="AS38" s="42">
+        <f>真值表!AT38</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="42">
+        <f>真值表!AU38</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:46">
       <c r="A39" s="28" t="str">
         <f>真值表!B39</f>
         <v>LH</v>
@@ -15683,8 +16387,27 @@
         <f>真值表!AP39</f>
         <v>0</v>
       </c>
+      <c r="AP39" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="43">
+        <f>真值表!AR39</f>
+        <v>0</v>
+      </c>
+      <c r="AR39" s="43">
+        <f>真值表!AS39</f>
+        <v>0</v>
+      </c>
+      <c r="AS39" s="43">
+        <f>真值表!AT39</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="43">
+        <f>真值表!AU39</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:46">
       <c r="A40" s="24" t="str">
         <f>真值表!B40</f>
         <v>LHU</v>
@@ -15849,8 +16572,27 @@
         <f>真值表!AP40</f>
         <v>0</v>
       </c>
+      <c r="AP40" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="42">
+        <f>真值表!AR40</f>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="42">
+        <f>真值表!AS40</f>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="42">
+        <f>真值表!AT40</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="42">
+        <f>真值表!AU40</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:46">
       <c r="A41" s="28" t="str">
         <f>真值表!B41</f>
         <v>SB</v>
@@ -15999,24 +16741,43 @@
         <f>真值表!AL41</f>
         <v>0</v>
       </c>
-      <c r="AL41" s="43">
+      <c r="AL41" s="41">
         <f>真值表!AM41</f>
         <v>1</v>
       </c>
-      <c r="AM41" s="43">
+      <c r="AM41" s="41">
         <f>真值表!AN41</f>
         <v>0</v>
       </c>
-      <c r="AN41" s="43">
+      <c r="AN41" s="41">
         <f>真值表!AO41</f>
         <v>0</v>
       </c>
-      <c r="AO41" s="43">
+      <c r="AO41" s="41">
         <f>真值表!AP41</f>
         <v>0</v>
       </c>
+      <c r="AP41" s="41">
+        <f>真值表!AQ41</f>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="41">
+        <f>真值表!AS41</f>
+        <v>0</v>
+      </c>
+      <c r="AS41" s="41">
+        <f>真值表!AT41</f>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="41">
+        <f>真值表!AU41</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:46">
       <c r="A42" s="24" t="str">
         <f>真值表!B42</f>
         <v>SH</v>
@@ -16181,8 +16942,27 @@
         <f>真值表!AP42</f>
         <v>0</v>
       </c>
+      <c r="AP42" s="42">
+        <f>真值表!AQ42</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="42">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="42">
+        <f>真值表!AS42</f>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="42">
+        <f>真值表!AT42</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="42">
+        <f>真值表!AU42</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:46">
       <c r="A43" s="28" t="str">
         <f>真值表!B43</f>
         <v>BLEZ</v>
@@ -16347,8 +17127,27 @@
         <f>真值表!AP43</f>
         <v>1</v>
       </c>
+      <c r="AP43" s="43">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="43">
+        <f>真值表!AR43</f>
+        <v>0</v>
+      </c>
+      <c r="AR43" s="43">
+        <f>真值表!AS43</f>
+        <v>0</v>
+      </c>
+      <c r="AS43" s="43">
+        <f>真值表!AT43</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="43">
+        <f>真值表!AU43</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:46">
       <c r="A44" s="24" t="str">
         <f>真值表!B44</f>
         <v>BGTZ</v>
@@ -16513,8 +17312,27 @@
         <f>真值表!AP44</f>
         <v>0</v>
       </c>
+      <c r="AP44" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="42">
+        <f>真值表!AR44</f>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="42">
+        <f>真值表!AS44</f>
+        <v>0</v>
+      </c>
+      <c r="AS44" s="42">
+        <f>真值表!AT44</f>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="42">
+        <f>真值表!AU44</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:46">
       <c r="A45" s="28" t="str">
         <f>真值表!B45</f>
         <v>BLTZ</v>
@@ -16663,24 +17481,43 @@
         <f>真值表!AL45</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="43">
+      <c r="AL45" s="41">
         <f>真值表!AM45</f>
         <v>0</v>
       </c>
-      <c r="AM45" s="43">
+      <c r="AM45" s="41">
         <f>真值表!AN45</f>
         <v>0</v>
       </c>
-      <c r="AN45" s="43">
+      <c r="AN45" s="41">
         <f>真值表!AO45</f>
         <v>1</v>
       </c>
-      <c r="AO45" s="43">
+      <c r="AO45" s="41">
         <f>真值表!AP45</f>
         <v>1</v>
       </c>
+      <c r="AP45" s="41">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="41">
+        <f>真值表!AR45</f>
+        <v>0</v>
+      </c>
+      <c r="AR45" s="41">
+        <f>真值表!AS45</f>
+        <v>0</v>
+      </c>
+      <c r="AS45" s="41">
+        <f>真值表!AT45</f>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="41">
+        <f>真值表!AU45</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:46">
       <c r="A46" s="24" t="str">
         <f>真值表!B46</f>
         <v>BGEZ</v>
@@ -16845,8 +17682,27 @@
         <f>真值表!AP46</f>
         <v>1</v>
       </c>
+      <c r="AP46" s="42">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="42">
+        <f>真值表!AR46</f>
+        <v>0</v>
+      </c>
+      <c r="AR46" s="42">
+        <f>真值表!AS46</f>
+        <v>0</v>
+      </c>
+      <c r="AS46" s="42">
+        <f>真值表!AT46</f>
+        <v>0</v>
+      </c>
+      <c r="AT46" s="42">
+        <f>真值表!AU46</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:46">
       <c r="A47" s="28">
         <f>真值表!B47</f>
         <v>0</v>
@@ -17011,8 +17867,28 @@
         <f>真值表!AP47</f>
         <v>0</v>
       </c>
+      <c r="AP47" s="43">
+        <f>真值表!AQ47</f>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="43">
+        <f>真值表!AR47</f>
+        <v>0</v>
+      </c>
+      <c r="AR47" s="43">
+        <f>真值表!AS47</f>
+        <v>0</v>
+      </c>
+      <c r="AS47" s="43">
+        <f>真值表!AT47</f>
+        <v>0</v>
+      </c>
+      <c r="AT47" s="43">
+        <f>真值表!AU47</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:46">
       <c r="A48" s="24">
         <f>真值表!B48</f>
         <v>0</v>
@@ -17177,8 +18053,28 @@
         <f>真值表!AP48</f>
         <v>0</v>
       </c>
+      <c r="AP48" s="42">
+        <f>真值表!AQ48</f>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="42">
+        <f>真值表!AR48</f>
+        <v>0</v>
+      </c>
+      <c r="AR48" s="42">
+        <f>真值表!AS48</f>
+        <v>0</v>
+      </c>
+      <c r="AS48" s="42">
+        <f>真值表!AT48</f>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="42">
+        <f>真值表!AU48</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:46">
       <c r="A49" s="28">
         <f>真值表!B49</f>
         <v>0</v>
@@ -17327,24 +18223,44 @@
         <f>真值表!AL49</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="43">
+      <c r="AL49" s="41">
         <f>真值表!AM49</f>
         <v>0</v>
       </c>
-      <c r="AM49" s="43">
+      <c r="AM49" s="41">
         <f>真值表!AN49</f>
         <v>0</v>
       </c>
-      <c r="AN49" s="43">
+      <c r="AN49" s="41">
         <f>真值表!AO49</f>
         <v>0</v>
       </c>
-      <c r="AO49" s="43">
+      <c r="AO49" s="41">
         <f>真值表!AP49</f>
         <v>0</v>
       </c>
+      <c r="AP49" s="41">
+        <f>真值表!AQ49</f>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="41">
+        <f>真值表!AR49</f>
+        <v>0</v>
+      </c>
+      <c r="AR49" s="41">
+        <f>真值表!AS49</f>
+        <v>0</v>
+      </c>
+      <c r="AS49" s="41">
+        <f>真值表!AT49</f>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="41">
+        <f>真值表!AU49</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:46">
       <c r="A50" s="24">
         <f>真值表!B50</f>
         <v>0</v>
@@ -17509,8 +18425,28 @@
         <f>真值表!AP50</f>
         <v>0</v>
       </c>
+      <c r="AP50" s="42">
+        <f>真值表!AQ50</f>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="42">
+        <f>真值表!AR50</f>
+        <v>0</v>
+      </c>
+      <c r="AR50" s="42">
+        <f>真值表!AS50</f>
+        <v>0</v>
+      </c>
+      <c r="AS50" s="42">
+        <f>真值表!AT50</f>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="42">
+        <f>真值表!AU50</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:46">
       <c r="A51" s="28">
         <f>真值表!B51</f>
         <v>0</v>
@@ -17675,8 +18611,28 @@
         <f>真值表!AP51</f>
         <v>0</v>
       </c>
+      <c r="AP51" s="43">
+        <f>真值表!AQ51</f>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="43">
+        <f>真值表!AR51</f>
+        <v>0</v>
+      </c>
+      <c r="AR51" s="43">
+        <f>真值表!AS51</f>
+        <v>0</v>
+      </c>
+      <c r="AS51" s="43">
+        <f>真值表!AT51</f>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="43">
+        <f>真值表!AU51</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:46">
       <c r="A52" s="24">
         <f>真值表!B52</f>
         <v>0</v>
@@ -17841,8 +18797,28 @@
         <f>真值表!AP52</f>
         <v>0</v>
       </c>
+      <c r="AP52" s="42">
+        <f>真值表!AQ52</f>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="42">
+        <f>真值表!AR52</f>
+        <v>0</v>
+      </c>
+      <c r="AR52" s="42">
+        <f>真值表!AS52</f>
+        <v>0</v>
+      </c>
+      <c r="AS52" s="42">
+        <f>真值表!AT52</f>
+        <v>0</v>
+      </c>
+      <c r="AT52" s="42">
+        <f>真值表!AU52</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:46">
       <c r="A53" s="28"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -17880,21 +18856,44 @@
       <c r="AI53" s="43"/>
       <c r="AJ53" s="43"/>
       <c r="AK53" s="43"/>
-      <c r="AL53" s="43"/>
-      <c r="AM53" s="43">
+      <c r="AL53" s="41">
+        <f>真值表!AM53</f>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="41">
         <f>真值表!AN53</f>
         <v>0</v>
       </c>
-      <c r="AN53" s="43">
+      <c r="AN53" s="41">
         <f>真值表!AO53</f>
         <v>0</v>
       </c>
-      <c r="AO53" s="43">
+      <c r="AO53" s="41">
         <f>真值表!AP53</f>
         <v>0</v>
       </c>
+      <c r="AP53" s="41">
+        <f>真值表!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="41">
+        <f>真值表!AR53</f>
+        <v>0</v>
+      </c>
+      <c r="AR53" s="41">
+        <f>真值表!AS53</f>
+        <v>0</v>
+      </c>
+      <c r="AS53" s="41">
+        <f>真值表!AT53</f>
+        <v>0</v>
+      </c>
+      <c r="AT53" s="41">
+        <f>真值表!AU53</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:46">
       <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -17932,7 +18931,10 @@
       <c r="AI54" s="42"/>
       <c r="AJ54" s="42"/>
       <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
+      <c r="AL54" s="42">
+        <f>真值表!AM54</f>
+        <v>0</v>
+      </c>
       <c r="AM54" s="42">
         <f>真值表!AN54</f>
         <v>0</v>
@@ -17945,8 +18947,28 @@
         <f>真值表!AP54</f>
         <v>0</v>
       </c>
+      <c r="AP54" s="42">
+        <f>真值表!AQ54</f>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="42">
+        <f>真值表!AR54</f>
+        <v>0</v>
+      </c>
+      <c r="AR54" s="42">
+        <f>真值表!AS54</f>
+        <v>0</v>
+      </c>
+      <c r="AS54" s="42">
+        <f>真值表!AT54</f>
+        <v>0</v>
+      </c>
+      <c r="AT54" s="42">
+        <f>真值表!AU54</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:46">
       <c r="A55" s="28"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
@@ -17984,7 +19006,10 @@
       <c r="AI55" s="43"/>
       <c r="AJ55" s="43"/>
       <c r="AK55" s="43"/>
-      <c r="AL55" s="43"/>
+      <c r="AL55" s="43">
+        <f>真值表!AM55</f>
+        <v>0</v>
+      </c>
       <c r="AM55" s="43">
         <f>真值表!AN55</f>
         <v>0</v>
@@ -17997,8 +19022,28 @@
         <f>真值表!AP55</f>
         <v>0</v>
       </c>
+      <c r="AP55" s="43">
+        <f>真值表!AQ55</f>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="43">
+        <f>真值表!AR55</f>
+        <v>0</v>
+      </c>
+      <c r="AR55" s="43">
+        <f>真值表!AS55</f>
+        <v>0</v>
+      </c>
+      <c r="AS55" s="43">
+        <f>真值表!AT55</f>
+        <v>0</v>
+      </c>
+      <c r="AT55" s="43">
+        <f>真值表!AU55</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:46">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -18036,7 +19081,10 @@
       <c r="AI56" s="42"/>
       <c r="AJ56" s="42"/>
       <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
+      <c r="AL56" s="42">
+        <f>真值表!AM56</f>
+        <v>0</v>
+      </c>
       <c r="AM56" s="42">
         <f>真值表!AN56</f>
         <v>0</v>
@@ -18049,8 +19097,28 @@
         <f>真值表!AP56</f>
         <v>0</v>
       </c>
+      <c r="AP56" s="42">
+        <f>真值表!AQ56</f>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="42">
+        <f>真值表!AR56</f>
+        <v>0</v>
+      </c>
+      <c r="AR56" s="42">
+        <f>真值表!AS56</f>
+        <v>0</v>
+      </c>
+      <c r="AS56" s="42">
+        <f>真值表!AT56</f>
+        <v>0</v>
+      </c>
+      <c r="AT56" s="42">
+        <f>真值表!AU56</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:46">
       <c r="A57" s="28"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
@@ -18088,21 +19156,44 @@
       <c r="AI57" s="43"/>
       <c r="AJ57" s="43"/>
       <c r="AK57" s="43"/>
-      <c r="AL57" s="43"/>
-      <c r="AM57" s="43">
+      <c r="AL57" s="41">
+        <f>真值表!AM57</f>
+        <v>0</v>
+      </c>
+      <c r="AM57" s="41">
         <f>真值表!AN57</f>
         <v>0</v>
       </c>
-      <c r="AN57" s="43">
+      <c r="AN57" s="41">
         <f>真值表!AO57</f>
         <v>0</v>
       </c>
-      <c r="AO57" s="43">
+      <c r="AO57" s="41">
         <f>真值表!AP57</f>
         <v>0</v>
       </c>
+      <c r="AP57" s="41">
+        <f>真值表!AQ57</f>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="41">
+        <f>真值表!AR57</f>
+        <v>0</v>
+      </c>
+      <c r="AR57" s="41">
+        <f>真值表!AS57</f>
+        <v>0</v>
+      </c>
+      <c r="AS57" s="41">
+        <f>真值表!AT57</f>
+        <v>0</v>
+      </c>
+      <c r="AT57" s="41">
+        <f>真值表!AU57</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:46">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -18140,7 +19231,10 @@
       <c r="AI58" s="42"/>
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
+      <c r="AL58" s="42">
+        <f>真值表!AM58</f>
+        <v>0</v>
+      </c>
       <c r="AM58" s="42">
         <f>真值表!AN58</f>
         <v>0</v>
@@ -18153,8 +19247,28 @@
         <f>真值表!AP58</f>
         <v>0</v>
       </c>
+      <c r="AP58" s="42">
+        <f>真值表!AQ58</f>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="42">
+        <f>真值表!AR58</f>
+        <v>0</v>
+      </c>
+      <c r="AR58" s="42">
+        <f>真值表!AS58</f>
+        <v>0</v>
+      </c>
+      <c r="AS58" s="42">
+        <f>真值表!AT58</f>
+        <v>0</v>
+      </c>
+      <c r="AT58" s="42">
+        <f>真值表!AU58</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:46">
       <c r="A59" s="28"/>
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
@@ -18192,7 +19306,10 @@
       <c r="AI59" s="43"/>
       <c r="AJ59" s="43"/>
       <c r="AK59" s="43"/>
-      <c r="AL59" s="43"/>
+      <c r="AL59" s="43">
+        <f>真值表!AM59</f>
+        <v>0</v>
+      </c>
       <c r="AM59" s="43">
         <f>真值表!AN59</f>
         <v>0</v>
@@ -18205,8 +19322,28 @@
         <f>真值表!AP59</f>
         <v>0</v>
       </c>
+      <c r="AP59" s="43">
+        <f>真值表!AQ59</f>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="43">
+        <f>真值表!AR59</f>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="43">
+        <f>真值表!AS59</f>
+        <v>0</v>
+      </c>
+      <c r="AS59" s="43">
+        <f>真值表!AT59</f>
+        <v>0</v>
+      </c>
+      <c r="AT59" s="43">
+        <f>真值表!AU59</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:46">
       <c r="A60" s="24"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
@@ -18244,7 +19381,10 @@
       <c r="AI60" s="42"/>
       <c r="AJ60" s="42"/>
       <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
+      <c r="AL60" s="42">
+        <f>真值表!AM60</f>
+        <v>0</v>
+      </c>
       <c r="AM60" s="42">
         <f>真值表!AN60</f>
         <v>0</v>
@@ -18257,8 +19397,28 @@
         <f>真值表!AP60</f>
         <v>0</v>
       </c>
+      <c r="AP60" s="42">
+        <f>真值表!AQ60</f>
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="42">
+        <f>真值表!AR60</f>
+        <v>0</v>
+      </c>
+      <c r="AR60" s="42">
+        <f>真值表!AS60</f>
+        <v>0</v>
+      </c>
+      <c r="AS60" s="42">
+        <f>真值表!AT60</f>
+        <v>0</v>
+      </c>
+      <c r="AT60" s="42">
+        <f>真值表!AU60</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:46">
       <c r="A61" s="28"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
@@ -18296,21 +19456,44 @@
       <c r="AI61" s="43"/>
       <c r="AJ61" s="43"/>
       <c r="AK61" s="43"/>
-      <c r="AL61" s="43"/>
-      <c r="AM61" s="43">
+      <c r="AL61" s="41">
+        <f>真值表!AM61</f>
+        <v>0</v>
+      </c>
+      <c r="AM61" s="41">
         <f>真值表!AN61</f>
         <v>0</v>
       </c>
-      <c r="AN61" s="43">
+      <c r="AN61" s="41">
         <f>真值表!AO61</f>
         <v>0</v>
       </c>
-      <c r="AO61" s="43">
+      <c r="AO61" s="41">
         <f>真值表!AP61</f>
         <v>0</v>
       </c>
+      <c r="AP61" s="41">
+        <f>真值表!AQ61</f>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="41">
+        <f>真值表!AR61</f>
+        <v>0</v>
+      </c>
+      <c r="AR61" s="41">
+        <f>真值表!AS61</f>
+        <v>0</v>
+      </c>
+      <c r="AS61" s="41">
+        <f>真值表!AT61</f>
+        <v>0</v>
+      </c>
+      <c r="AT61" s="41">
+        <f>真值表!AU61</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:46">
       <c r="A62" s="24"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -18348,7 +19531,10 @@
       <c r="AI62" s="42"/>
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
+      <c r="AL62" s="42">
+        <f>真值表!AM62</f>
+        <v>0</v>
+      </c>
       <c r="AM62" s="42">
         <f>真值表!AN62</f>
         <v>0</v>
@@ -18361,8 +19547,28 @@
         <f>真值表!AP62</f>
         <v>0</v>
       </c>
+      <c r="AP62" s="42">
+        <f>真值表!AQ62</f>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="42">
+        <f>真值表!AR62</f>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="42">
+        <f>真值表!AS62</f>
+        <v>0</v>
+      </c>
+      <c r="AS62" s="42">
+        <f>真值表!AT62</f>
+        <v>0</v>
+      </c>
+      <c r="AT62" s="42">
+        <f>真值表!AU62</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:46">
       <c r="A63" s="28"/>
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
@@ -18400,7 +19606,10 @@
       <c r="AI63" s="43"/>
       <c r="AJ63" s="43"/>
       <c r="AK63" s="43"/>
-      <c r="AL63" s="43"/>
+      <c r="AL63" s="43">
+        <f>真值表!AM63</f>
+        <v>0</v>
+      </c>
       <c r="AM63" s="43">
         <f>真值表!AN63</f>
         <v>0</v>
@@ -18413,8 +19622,28 @@
         <f>真值表!AP63</f>
         <v>0</v>
       </c>
+      <c r="AP63" s="43">
+        <f>真值表!AQ63</f>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="43">
+        <f>真值表!AR63</f>
+        <v>0</v>
+      </c>
+      <c r="AR63" s="43">
+        <f>真值表!AS63</f>
+        <v>0</v>
+      </c>
+      <c r="AS63" s="43">
+        <f>真值表!AT63</f>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="43">
+        <f>真值表!AU63</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:46">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -18452,7 +19681,10 @@
       <c r="AI64" s="42"/>
       <c r="AJ64" s="42"/>
       <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
+      <c r="AL64" s="42">
+        <f>真值表!AM64</f>
+        <v>0</v>
+      </c>
       <c r="AM64" s="42">
         <f>真值表!AN64</f>
         <v>0</v>
@@ -18465,8 +19697,28 @@
         <f>真值表!AP64</f>
         <v>0</v>
       </c>
+      <c r="AP64" s="42">
+        <f>真值表!AQ64</f>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="42">
+        <f>真值表!AR64</f>
+        <v>0</v>
+      </c>
+      <c r="AR64" s="42">
+        <f>真值表!AS64</f>
+        <v>0</v>
+      </c>
+      <c r="AS64" s="42">
+        <f>真值表!AT64</f>
+        <v>0</v>
+      </c>
+      <c r="AT64" s="42">
+        <f>真值表!AU64</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:46">
       <c r="A65" s="28"/>
       <c r="B65" s="29"/>
       <c r="C65" s="30"/>
@@ -18504,21 +19756,44 @@
       <c r="AI65" s="43"/>
       <c r="AJ65" s="43"/>
       <c r="AK65" s="43"/>
-      <c r="AL65" s="43"/>
-      <c r="AM65" s="43">
+      <c r="AL65" s="41">
+        <f>真值表!AM65</f>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="41">
         <f>真值表!AN65</f>
         <v>0</v>
       </c>
-      <c r="AN65" s="43">
+      <c r="AN65" s="41">
         <f>真值表!AO65</f>
         <v>0</v>
       </c>
-      <c r="AO65" s="43">
+      <c r="AO65" s="41">
         <f>真值表!AP65</f>
         <v>0</v>
       </c>
+      <c r="AP65" s="41">
+        <f>真值表!AQ65</f>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="41">
+        <f>真值表!AR65</f>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="41">
+        <f>真值表!AS65</f>
+        <v>0</v>
+      </c>
+      <c r="AS65" s="41">
+        <f>真值表!AT65</f>
+        <v>0</v>
+      </c>
+      <c r="AT65" s="41">
+        <f>真值表!AU65</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:46">
       <c r="A66" s="24"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
@@ -18556,7 +19831,10 @@
       <c r="AI66" s="42"/>
       <c r="AJ66" s="42"/>
       <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
+      <c r="AL66" s="42">
+        <f>真值表!AM66</f>
+        <v>0</v>
+      </c>
       <c r="AM66" s="42">
         <f>真值表!AN66</f>
         <v>0</v>
@@ -18569,8 +19847,28 @@
         <f>真值表!AP66</f>
         <v>0</v>
       </c>
+      <c r="AP66" s="42">
+        <f>真值表!AQ66</f>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="42">
+        <f>真值表!AR66</f>
+        <v>0</v>
+      </c>
+      <c r="AR66" s="42">
+        <f>真值表!AS66</f>
+        <v>0</v>
+      </c>
+      <c r="AS66" s="42">
+        <f>真值表!AT66</f>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="42">
+        <f>真值表!AU66</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:46">
       <c r="A67" s="28"/>
       <c r="B67" s="29"/>
       <c r="C67" s="30"/>
@@ -18608,7 +19906,10 @@
       <c r="AI67" s="43"/>
       <c r="AJ67" s="43"/>
       <c r="AK67" s="43"/>
-      <c r="AL67" s="43"/>
+      <c r="AL67" s="43">
+        <f>真值表!AM67</f>
+        <v>0</v>
+      </c>
       <c r="AM67" s="43">
         <f>真值表!AN67</f>
         <v>0</v>
@@ -18621,8 +19922,28 @@
         <f>真值表!AP67</f>
         <v>0</v>
       </c>
+      <c r="AP67" s="43">
+        <f>真值表!AQ67</f>
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="43">
+        <f>真值表!AR67</f>
+        <v>0</v>
+      </c>
+      <c r="AR67" s="43">
+        <f>真值表!AS67</f>
+        <v>0</v>
+      </c>
+      <c r="AS67" s="43">
+        <f>真值表!AT67</f>
+        <v>0</v>
+      </c>
+      <c r="AT67" s="43">
+        <f>真值表!AU67</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:46">
       <c r="A68" s="24"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
@@ -18660,7 +19981,10 @@
       <c r="AI68" s="42"/>
       <c r="AJ68" s="42"/>
       <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
+      <c r="AL68" s="42">
+        <f>真值表!AM68</f>
+        <v>0</v>
+      </c>
       <c r="AM68" s="42">
         <f>真值表!AN68</f>
         <v>0</v>
@@ -18673,8 +19997,28 @@
         <f>真值表!AP68</f>
         <v>0</v>
       </c>
+      <c r="AP68" s="42">
+        <f>真值表!AQ68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="42">
+        <f>真值表!AR68</f>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="42">
+        <f>真值表!AS68</f>
+        <v>0</v>
+      </c>
+      <c r="AS68" s="42">
+        <f>真值表!AT68</f>
+        <v>0</v>
+      </c>
+      <c r="AT68" s="42">
+        <f>真值表!AU68</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:46">
       <c r="A69" s="28"/>
       <c r="B69" s="29"/>
       <c r="C69" s="30"/>
@@ -18712,21 +20056,44 @@
       <c r="AI69" s="43"/>
       <c r="AJ69" s="43"/>
       <c r="AK69" s="43"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="43">
+      <c r="AL69" s="41">
+        <f>真值表!AM69</f>
+        <v>0</v>
+      </c>
+      <c r="AM69" s="41">
         <f>真值表!AN69</f>
         <v>0</v>
       </c>
-      <c r="AN69" s="43">
+      <c r="AN69" s="41">
         <f>真值表!AO69</f>
         <v>0</v>
       </c>
-      <c r="AO69" s="43">
+      <c r="AO69" s="41">
         <f>真值表!AP69</f>
         <v>0</v>
       </c>
+      <c r="AP69" s="41">
+        <f>真值表!AQ69</f>
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="41">
+        <f>真值表!AR69</f>
+        <v>0</v>
+      </c>
+      <c r="AR69" s="41">
+        <f>真值表!AS69</f>
+        <v>0</v>
+      </c>
+      <c r="AS69" s="41">
+        <f>真值表!AT69</f>
+        <v>0</v>
+      </c>
+      <c r="AT69" s="41">
+        <f>真值表!AU69</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:46">
       <c r="A70" s="24"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
@@ -18764,7 +20131,10 @@
       <c r="AI70" s="42"/>
       <c r="AJ70" s="42"/>
       <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
+      <c r="AL70" s="42">
+        <f>真值表!AM70</f>
+        <v>0</v>
+      </c>
       <c r="AM70" s="42">
         <f>真值表!AN70</f>
         <v>0</v>
@@ -18777,8 +20147,28 @@
         <f>真值表!AP70</f>
         <v>0</v>
       </c>
+      <c r="AP70" s="42">
+        <f>真值表!AQ70</f>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="42">
+        <f>真值表!AR70</f>
+        <v>0</v>
+      </c>
+      <c r="AR70" s="42">
+        <f>真值表!AS70</f>
+        <v>0</v>
+      </c>
+      <c r="AS70" s="42">
+        <f>真值表!AT70</f>
+        <v>0</v>
+      </c>
+      <c r="AT70" s="42">
+        <f>真值表!AU70</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:46">
       <c r="A71" s="28"/>
       <c r="B71" s="29"/>
       <c r="C71" s="30"/>
@@ -18816,7 +20206,10 @@
       <c r="AI71" s="43"/>
       <c r="AJ71" s="43"/>
       <c r="AK71" s="43"/>
-      <c r="AL71" s="43"/>
+      <c r="AL71" s="43">
+        <f>真值表!AM71</f>
+        <v>0</v>
+      </c>
       <c r="AM71" s="43">
         <f>真值表!AN71</f>
         <v>0</v>
@@ -18829,8 +20222,28 @@
         <f>真值表!AP71</f>
         <v>0</v>
       </c>
+      <c r="AP71" s="43">
+        <f>真值表!AQ71</f>
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="43">
+        <f>真值表!AR71</f>
+        <v>0</v>
+      </c>
+      <c r="AR71" s="43">
+        <f>真值表!AS71</f>
+        <v>0</v>
+      </c>
+      <c r="AS71" s="43">
+        <f>真值表!AT71</f>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="43">
+        <f>真值表!AU71</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:46">
       <c r="A72" s="24"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
@@ -18868,7 +20281,10 @@
       <c r="AI72" s="42"/>
       <c r="AJ72" s="42"/>
       <c r="AK72" s="42"/>
-      <c r="AL72" s="42"/>
+      <c r="AL72" s="42">
+        <f>真值表!AM72</f>
+        <v>0</v>
+      </c>
       <c r="AM72" s="42">
         <f>真值表!AN72</f>
         <v>0</v>
@@ -18881,8 +20297,28 @@
         <f>真值表!AP72</f>
         <v>0</v>
       </c>
+      <c r="AP72" s="42">
+        <f>真值表!AQ72</f>
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="42">
+        <f>真值表!AR72</f>
+        <v>0</v>
+      </c>
+      <c r="AR72" s="42">
+        <f>真值表!AS72</f>
+        <v>0</v>
+      </c>
+      <c r="AS72" s="42">
+        <f>真值表!AT72</f>
+        <v>0</v>
+      </c>
+      <c r="AT72" s="42">
+        <f>真值表!AU72</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:46">
       <c r="A73" s="28"/>
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
@@ -18920,21 +20356,44 @@
       <c r="AI73" s="43"/>
       <c r="AJ73" s="43"/>
       <c r="AK73" s="43"/>
-      <c r="AL73" s="43"/>
-      <c r="AM73" s="43">
+      <c r="AL73" s="41">
+        <f>真值表!AM73</f>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="41">
         <f>真值表!AN73</f>
         <v>0</v>
       </c>
-      <c r="AN73" s="43">
+      <c r="AN73" s="41">
         <f>真值表!AO73</f>
         <v>0</v>
       </c>
-      <c r="AO73" s="43">
+      <c r="AO73" s="41">
         <f>真值表!AP73</f>
         <v>0</v>
       </c>
+      <c r="AP73" s="41">
+        <f>真值表!AQ73</f>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="41">
+        <f>真值表!AR73</f>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="41">
+        <f>真值表!AS73</f>
+        <v>0</v>
+      </c>
+      <c r="AS73" s="41">
+        <f>真值表!AT73</f>
+        <v>0</v>
+      </c>
+      <c r="AT73" s="41">
+        <f>真值表!AU73</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:46">
       <c r="A74" s="24"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
@@ -18972,7 +20431,10 @@
       <c r="AI74" s="42"/>
       <c r="AJ74" s="42"/>
       <c r="AK74" s="42"/>
-      <c r="AL74" s="42"/>
+      <c r="AL74" s="42">
+        <f>真值表!AM74</f>
+        <v>0</v>
+      </c>
       <c r="AM74" s="42">
         <f>真值表!AN74</f>
         <v>0</v>
@@ -18985,8 +20447,28 @@
         <f>真值表!AP74</f>
         <v>0</v>
       </c>
+      <c r="AP74" s="42">
+        <f>真值表!AQ74</f>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="42">
+        <f>真值表!AR74</f>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="42">
+        <f>真值表!AS74</f>
+        <v>0</v>
+      </c>
+      <c r="AS74" s="42">
+        <f>真值表!AT74</f>
+        <v>0</v>
+      </c>
+      <c r="AT74" s="42">
+        <f>真值表!AU74</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:46">
       <c r="A75" s="28"/>
       <c r="B75" s="29"/>
       <c r="C75" s="30"/>
@@ -19024,7 +20506,10 @@
       <c r="AI75" s="43"/>
       <c r="AJ75" s="43"/>
       <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
+      <c r="AL75" s="43">
+        <f>真值表!AM75</f>
+        <v>0</v>
+      </c>
       <c r="AM75" s="43">
         <f>真值表!AN75</f>
         <v>0</v>
@@ -19037,8 +20522,28 @@
         <f>真值表!AP75</f>
         <v>0</v>
       </c>
+      <c r="AP75" s="43">
+        <f>真值表!AQ75</f>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="43">
+        <f>真值表!AR75</f>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="43">
+        <f>真值表!AS75</f>
+        <v>0</v>
+      </c>
+      <c r="AS75" s="43">
+        <f>真值表!AT75</f>
+        <v>0</v>
+      </c>
+      <c r="AT75" s="43">
+        <f>真值表!AU75</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:46">
       <c r="A76" s="24"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
@@ -19076,7 +20581,10 @@
       <c r="AI76" s="42"/>
       <c r="AJ76" s="42"/>
       <c r="AK76" s="42"/>
-      <c r="AL76" s="42"/>
+      <c r="AL76" s="42">
+        <f>真值表!AM76</f>
+        <v>0</v>
+      </c>
       <c r="AM76" s="42">
         <f>真值表!AN76</f>
         <v>0</v>
@@ -19089,8 +20597,28 @@
         <f>真值表!AP76</f>
         <v>0</v>
       </c>
+      <c r="AP76" s="42">
+        <f>真值表!AQ76</f>
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="42">
+        <f>真值表!AR76</f>
+        <v>0</v>
+      </c>
+      <c r="AR76" s="42">
+        <f>真值表!AS76</f>
+        <v>0</v>
+      </c>
+      <c r="AS76" s="42">
+        <f>真值表!AT76</f>
+        <v>0</v>
+      </c>
+      <c r="AT76" s="42">
+        <f>真值表!AU76</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:46">
       <c r="A77" s="28"/>
       <c r="B77" s="29"/>
       <c r="C77" s="30"/>
@@ -19128,21 +20656,44 @@
       <c r="AI77" s="43"/>
       <c r="AJ77" s="43"/>
       <c r="AK77" s="43"/>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="43">
+      <c r="AL77" s="41">
+        <f>真值表!AM77</f>
+        <v>0</v>
+      </c>
+      <c r="AM77" s="41">
         <f>真值表!AN77</f>
         <v>0</v>
       </c>
-      <c r="AN77" s="43">
+      <c r="AN77" s="41">
         <f>真值表!AO77</f>
         <v>0</v>
       </c>
-      <c r="AO77" s="43">
+      <c r="AO77" s="41">
         <f>真值表!AP77</f>
         <v>0</v>
       </c>
+      <c r="AP77" s="41">
+        <f>真值表!AQ77</f>
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="41">
+        <f>真值表!AR77</f>
+        <v>0</v>
+      </c>
+      <c r="AR77" s="41">
+        <f>真值表!AS77</f>
+        <v>0</v>
+      </c>
+      <c r="AS77" s="41">
+        <f>真值表!AT77</f>
+        <v>0</v>
+      </c>
+      <c r="AT77" s="41">
+        <f>真值表!AU77</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:46">
       <c r="A78" s="24"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -19180,7 +20731,10 @@
       <c r="AI78" s="42"/>
       <c r="AJ78" s="42"/>
       <c r="AK78" s="42"/>
-      <c r="AL78" s="42"/>
+      <c r="AL78" s="42">
+        <f>真值表!AM78</f>
+        <v>0</v>
+      </c>
       <c r="AM78" s="42">
         <f>真值表!AN78</f>
         <v>0</v>
@@ -19193,8 +20747,28 @@
         <f>真值表!AP78</f>
         <v>0</v>
       </c>
+      <c r="AP78" s="42">
+        <f>真值表!AQ78</f>
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="42">
+        <f>真值表!AR78</f>
+        <v>0</v>
+      </c>
+      <c r="AR78" s="42">
+        <f>真值表!AS78</f>
+        <v>0</v>
+      </c>
+      <c r="AS78" s="42">
+        <f>真值表!AT78</f>
+        <v>0</v>
+      </c>
+      <c r="AT78" s="42">
+        <f>真值表!AU78</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:46">
       <c r="A79" s="28"/>
       <c r="B79" s="29"/>
       <c r="C79" s="30"/>
@@ -19232,7 +20806,10 @@
       <c r="AI79" s="43"/>
       <c r="AJ79" s="43"/>
       <c r="AK79" s="43"/>
-      <c r="AL79" s="43"/>
+      <c r="AL79" s="43">
+        <f>真值表!AM79</f>
+        <v>0</v>
+      </c>
       <c r="AM79" s="43">
         <f>真值表!AN79</f>
         <v>0</v>
@@ -19245,8 +20822,28 @@
         <f>真值表!AP79</f>
         <v>0</v>
       </c>
+      <c r="AP79" s="43">
+        <f>真值表!AQ79</f>
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="43">
+        <f>真值表!AR79</f>
+        <v>0</v>
+      </c>
+      <c r="AR79" s="43">
+        <f>真值表!AS79</f>
+        <v>0</v>
+      </c>
+      <c r="AS79" s="43">
+        <f>真值表!AT79</f>
+        <v>0</v>
+      </c>
+      <c r="AT79" s="43">
+        <f>真值表!AU79</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:46">
       <c r="A80" s="24"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -19284,7 +20881,10 @@
       <c r="AI80" s="42"/>
       <c r="AJ80" s="42"/>
       <c r="AK80" s="42"/>
-      <c r="AL80" s="42"/>
+      <c r="AL80" s="42">
+        <f>真值表!AM80</f>
+        <v>0</v>
+      </c>
       <c r="AM80" s="42">
         <f>真值表!AN80</f>
         <v>0</v>
@@ -19297,8 +20897,28 @@
         <f>真值表!AP80</f>
         <v>0</v>
       </c>
+      <c r="AP80" s="42">
+        <f>真值表!AQ80</f>
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="42">
+        <f>真值表!AR80</f>
+        <v>0</v>
+      </c>
+      <c r="AR80" s="42">
+        <f>真值表!AS80</f>
+        <v>0</v>
+      </c>
+      <c r="AS80" s="42">
+        <f>真值表!AT80</f>
+        <v>0</v>
+      </c>
+      <c r="AT80" s="42">
+        <f>真值表!AU80</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:46">
       <c r="A81" s="28"/>
       <c r="B81" s="29"/>
       <c r="C81" s="30"/>
@@ -19336,17 +20956,40 @@
       <c r="AI81" s="43"/>
       <c r="AJ81" s="43"/>
       <c r="AK81" s="43"/>
-      <c r="AL81" s="43"/>
-      <c r="AM81" s="43">
+      <c r="AL81" s="41">
+        <f>真值表!AM81</f>
+        <v>0</v>
+      </c>
+      <c r="AM81" s="41">
         <f>真值表!AN81</f>
         <v>0</v>
       </c>
-      <c r="AN81" s="43">
+      <c r="AN81" s="41">
         <f>真值表!AO81</f>
         <v>0</v>
       </c>
-      <c r="AO81" s="43">
+      <c r="AO81" s="41">
         <f>真值表!AP81</f>
+        <v>0</v>
+      </c>
+      <c r="AP81" s="41">
+        <f>真值表!AQ81</f>
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="41">
+        <f>真值表!AR81</f>
+        <v>0</v>
+      </c>
+      <c r="AR81" s="41">
+        <f>真值表!AS81</f>
+        <v>0</v>
+      </c>
+      <c r="AS81" s="41">
+        <f>真值表!AT81</f>
+        <v>0</v>
+      </c>
+      <c r="AT81" s="41">
+        <f>真值表!AU81</f>
         <v>0</v>
       </c>
     </row>
@@ -19362,18 +21005,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL1">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AK53:AK81">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL53:AL81">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19382,7 +21015,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AJ52 AG82:AJ1048576 AO1">
+  <conditionalFormatting sqref="AG1:AJ52 AG82:AJ1048576 AO1 AS1 AO5 AO9 AO13 AO17 AO21 AO25 AO29 AO33 AO37 AO41 AO45 AO49 AO53 AO57 AO61 AO65 AO69 AO73 AO77 AO81 AS5 AS9 AS13 AS17 AS21 AS25 AS29 AS33 AS37 AS41 AS45 AS49 AS53 AS57 AS61 AS65 AS69 AS73 AS77 AS81">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -19392,8 +21025,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AO3 AL4:AL52 AL82:AN1048576 AM1:AN1 AM4:AO81">
+  <conditionalFormatting sqref="AL2:AT4 AL82:AN1048576 AM1:AN1 AQ1:AR1 AL6:AT8 AL10:AT12 AL14:AT16 AL18:AT20 AL22:AT24 AL26:AT28 AL30:AT32 AL34:AT36 AL38:AT40 AL42:AT44 AL46:AT48 AL50:AT52 AL54:AT56 AL58:AT60 AL62:AT64 AL66:AT68 AL70:AT72 AL74:AT76 AL78:AT80 AM5:AN5 AM9:AN9 AM13:AN13 AM17:AN17 AM21:AN21 AM25:AN25 AM29:AN29 AM33:AN33 AM37:AN37 AM41:AN41 AM45:AN45 AM49:AN49 AM53:AN53 AM57:AN57 AM61:AN61 AM65:AN65 AM69:AN69 AM73:AN73 AM77:AN77 AM81:AN81 AQ5:AR5 AQ9:AR9 AQ13:AR13 AQ17:AR17 AQ21:AR21 AQ25:AR25 AQ29:AR29 AQ33:AR33 AQ37:AR37 AQ41:AR41 AQ45:AR45 AQ49:AR49 AQ53:AR53 AQ57:AR57 AQ61:AR61 AQ65:AR65 AQ69:AR69 AQ73:AR73 AQ77:AR77 AQ81:AR81">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL1 AP1 AT1 AL5 AL9 AL13 AL17 AL21 AL25 AL29 AL33 AL37 AL41 AL45 AL49 AL53 AL57 AL61 AL65 AL69 AL73 AL77 AL81 AP5 AP9 AP13 AP17 AP21 AP25 AP29 AP33 AP37 AP41 AP45 AP49 AP53 AP57 AP61 AP65 AP69 AP73 AP77 AP81 AT5 AT9 AT13 AT17 AT21 AT25 AT29 AT33 AT37 AT41 AT45 AT49 AT53 AT57 AT61 AT65 AT69 AT73 AT77 AT81">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19415,7 +21053,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T1 Q2 R2 S2 T2 Q3 R3 S3 T3 Q4 R4 S4 T4 Q5 R5 S5 T5 Q6 R6 S6 T6 Q7 R7 S7 T7 Q8 R8 S8 T8 Q9 R9 S9 T9 Q10 R10 S10 T10 Q11 R11 S11 T11 Q12 R12 S12 T12 Q13 R13 S13 T13 Q14 R14 S14 T14 Q15 R15 S15 T15 Q16 R16 S16 T16 Q17 R17 S17 T17 Q18 R18 S18 T18 Q19 R19 S19 T19 Q20 R20 S20 T20 Q21 R21 S21 T21 Q22 R22 S22 T22 Q23 R23 S23 T23 Q24 R24 S24 T24 Q25 R25 S25 T25 Q26 R26 S26 T26 Q27 R27 S27 T27 Q28 R28 S28 T28 Q29 R29 S29 T29 Q30 R30 S30 T30 Q31 R31 S31 T31 Q32 R32 S32 T32 Q33 R33 S33 T33 Q34 R34 S34 T34 Q35 R35 S35 T35 Q36 R36 S36 T36 Q37 R37 S37 T37 Q38 R38 S38 T38 Q39 R39 S39 T39 Q40 R40 S40 T40 Q41 R41 S41 T41 Q42 R42 S42 T42 Q43 R43 S43 T43 Q44 R44 S44 T44 Q45 R45 S45 T45 Q46 R46 S46 T46 Q47 R47 S47 T47 Q48 R48 S48 T48 Q49 R49 S49 T49 Q50 R50 S50 T50 Q51 R51 S51 T51 Q52 R52 S52 T52"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AE1 U2 V2 W2 X2 Y2 Z2 AA2 AB2 AC2 AD2 AE2 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 U4 V4 W4 X4 Y4 Z4 AA4 AB4 AC4 AD4 AE4 U5 V5 W5 X5 Y5 Z5 AA5 AB5 AC5 AD5 AE5 U6 V6 W6 X6 Y6 Z6 AA6 AB6 AC6 AD6 AE6 U7 V7 W7 X7 Y7 Z7 AA7 AB7 AC7 AD7 AE7 U8 V8 W8 X8 Y8 Z8 AA8 AB8 AC8 AD8 AE8 U9 V9 W9 X9 Y9 Z9 AA9 AB9 AC9 AD9 AE9 U10 V10 W10 X10 Y10 Z10 AA10 AB10 AC10 AD10 AE10 U11 V11 W11 X11 Y11 Z11 AA11 AB11 AC11 AD11 AE11 U12 V12 W12 X12 Y12 Z12 AA12 AB12 AC12 AD12 AE12 U13 V13 W13 X13 Y13 Z13 AA13 AB13 AC13 AD13 AE13 U14 V14 W14 X14 Y14 Z14 AA14 AB14 AC14 AD14 AE14 U15 V15 W15 X15 Y15 Z15 AA15 AB15 AC15 AD15 AE15 U16 V16 W16 X16 Y16 Z16 AA16 AB16 AC16 AD16 AE16 U17 V17 W17 X17 Y17 Z17 AA17 AB17 AC17 AD17 AE17 U18 V18 W18 X18 Y18 Z18 AA18 AB18 AC18 AD18 AE18 U19 V19 W19 X19 Y19 Z19 AA19 AB19 AC19 AD19 AE19 U20 V20 W20 X20 Y20 Z20 AA20 AB20 AC20 AD20 AE20 U21 V21 W21 X21 Y21 Z21 AA21 AB21 AC21 AD21 AE21 U22 V22 W22 X22 Y22 Z22 AA22 AB22 AC22 AD22 AE22 U23 V23 W23 X23 Y23 Z23 AA23 AB23 AC23 AD23 AE23 U24 V24 W24 X24 Y24 Z24 AA24 AB24 AC24 AD24 AE24 U25 V25 W25 X25 Y25 Z25 AA25 AB25 AC25 AD25 AE25 U26 V26 W26 X26 Y26 Z26 AA26 AB26 AC26 AD26 AE26 U27 V27 W27 X27 Y27 Z27 AA27 AB27 AC27 AD27 AE27 U28 V28 W28 X28 Y28 Z28 AA28 AB28 AC28 AD28 AE28 U29 V29 W29 X29 Y29 Z29 AA29 AB29 AC29 AD29 AE29 U30 V30 W30 X30 Y30 Z30 AA30 AB30 AC30 AD30 AE30 U31 V31 W31 X31 Y31 Z31 AA31 AB31 AC31 AD31 AE31 U32 V32 W32 X32 Y32 Z32 AA32 AB32 AC32 AD32 AE32 U33 V33 W33 X33 Y33 Z33 AA33 AB33 AC33 AD33 AE33 U34 V34 W34 X34 Y34 Z34 AA34 AB34 AC34 AD34 AE34 U35 V35 W35 X35 Y35 Z35 AA35 AB35 AC35 AD35 AE35 U36 V36 W36 X36 Y36 Z36 AA36 AB36 AC36 AD36 AE36 U37 V37 W37 X37 Y37 Z37 AA37 AB37 AC37 AD37 AE37 U38 V38 W38 X38 Y38 Z38 AA38 AB38 AC38 AD38 AE38 U39 V39 W39 X39 Y39 Z39 AA39 AB39 AC39 AD39 AE39 U40 V40 W40 X40 Y40 Z40 AA40 AB40 AC40 AD40 AE40 U41 V41 W41 X41 Y41 Z41 AA41 AB41 AC41 AD41 AE41 U42 V42 W42 X42 Y42 Z42 AA42 AB42 AC42 AD42 AE42 U43 V43 W43 X43 Y43 Z43 AA43 AB43 AC43 AD43 AE43 U44 V44 W44 X44 Y44 Z44 AA44 AB44 AC44 AD44 AE44 U45 V45 W45 X45 Y45 Z45 AA45 AB45 AC45 AD45 AE45 U46 V46 W46 X46 Y46 Z46 AA46 AB46 AC46 AD46 AE46 U47 V47 W47 X47 Y47 Z47 AA47 AB47 AC47 AD47 AE47 U48 V48 W48 X48 Y48 Z48 AA48 AB48 AC48 AD48 AE48 U49 V49 W49 X49 Y49 Z49 AA49 AB49 AC49 AD49 AE49 U50 V50 W50 X50 Y50 Z50 AA50 AB50 AC50 AD50 AE50 U51 V51 W51 X51 Y51 Z51 AA51 AB51 AC51 AD51 AE51 U52 V52 W52 X52 Y52 Z52 AA52 AB52 AC52 AD52 AE52 U53:AE1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF1 AF2 AF3 AF4 AF5 AF6 AF7 AF8 AF9 AF10 AF11 AF12 AF13 AF14 AF15 AF16 AF17 AF18 AF19 AF20 AF21 AF22 AF23 AF24 AF25 AF26 AF27 AF28 AF29 AF30 AF31 AF32 AF33 AF34 AF35 AF36 AF37 AF38 AF39 AF40 AF41 AF42 AF43 AF44 AF45 AF46 AF47 AF48 AF49 AF50 AF51 AF52 AF53:AF1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AI1 AJ1:AO1 AG2 AH2 AI2 AJ2 AK2 AL2 AG3 AH3 AI3 AJ3 AK3 AL3 AG4 AH4 AI4 AJ4 AK4 AL4 AG5 AH5 AI5 AJ5 AK5 AL5 AG6 AH6 AI6 AJ6 AK6 AL6 AG7 AH7 AI7 AJ7 AK7 AL7 AG8 AH8 AI8 AJ8 AK8 AL8 AG9 AH9 AI9 AJ9 AK9 AL9 AG10 AH10 AI10 AJ10 AK10 AL10 AG11 AH11 AI11 AJ11 AK11 AL11 AG12 AH12 AI12 AJ12 AK12 AL12 AG13 AH13 AI13 AJ13 AK13 AL13 AG14 AH14 AI14 AJ14 AK14 AL14 AG15 AH15 AI15 AJ15 AK15 AL15 AG16 AH16 AI16 AJ16 AK16 AL16 AG17 AH17 AI17 AJ17 AK17 AL17 AG18 AH18 AI18 AJ18 AK18 AL18 AG19 AH19 AI19 AJ19 AK19 AL19 AG20 AH20 AI20 AJ20 AK20 AL20 AG21 AH21 AI21 AJ21 AK21 AL21 AG22 AH22 AI22 AJ22 AK22 AL22 AG23 AH23 AI23 AJ23 AK23 AL23 AG24 AH24 AI24 AJ24 AK24 AL24 AG25 AH25 AI25 AJ25 AK25 AL25 AG26 AH26 AI26 AJ26 AK26 AL26 AG27 AH27 AI27 AJ27 AK27 AL27 AG28 AH28 AI28 AJ28 AK28 AL28 AG29 AH29 AI29 AJ29 AK29 AL29 AG30 AH30 AI30 AJ30 AK30 AL30 AG31 AH31 AI31 AJ31 AK31 AL31 AG32 AH32 AI32 AJ32 AK32 AL32 AG33 AH33 AI33 AJ33 AK33 AL33 AG34 AH34 AI34 AJ34 AK34 AL34 AG35 AH35 AI35 AJ35 AK35 AL35 AG36 AH36 AI36 AJ36 AK36 AL36 AG37 AH37 AI37 AJ37 AK37 AL37 AG38 AH38 AI38 AJ38 AK38 AL38 AG39 AH39 AI39 AJ39 AK39 AL39 AG40 AH40 AI40 AJ40 AK40 AL40 AG41 AH41 AI41 AJ41 AK41 AL41 AG42 AH42 AI42 AJ42 AK42 AL42 AG43 AH43 AI43 AJ43 AK43 AL43 AG44 AH44 AI44 AJ44 AK44 AL44 AG45 AH45 AI45 AJ45 AK45 AL45 AG46 AH46 AI46 AJ46 AK46 AL46 AG47 AH47 AI47 AJ47 AK47 AL47 AG48 AH48 AI48 AJ48 AK48 AL48 AG49 AH49 AI49 AJ49 AK49 AL49 AG50 AH50 AI50 AJ50 AK50 AL50 AG51 AH51 AI51 AJ51 AK51 AL51 AG52 AH52 AI52 AJ52 AK52 AL52 AG53:AL81 AG82:AN1048576 AM2:AO81"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AI1 AJ1:AK1 AG2 AH2 AI2 AJ2 AK2 AG3 AH3 AI3 AJ3 AK3 AG4 AH4 AI4 AJ4 AK4 AG5 AH5 AI5 AJ5 AK5 AG6 AH6 AI6 AJ6 AK6 AG7 AH7 AI7 AJ7 AK7 AG8 AH8 AI8 AJ8 AK8 AG9 AH9 AI9 AJ9 AK9 AG10 AH10 AI10 AJ10 AK10 AG11 AH11 AI11 AJ11 AK11 AG12 AH12 AI12 AJ12 AK12 AG13 AH13 AI13 AJ13 AK13 AG14 AH14 AI14 AJ14 AK14 AG15 AH15 AI15 AJ15 AK15 AG16 AH16 AI16 AJ16 AK16 AG17 AH17 AI17 AJ17 AK17 AG18 AH18 AI18 AJ18 AK18 AG19 AH19 AI19 AJ19 AK19 AG20 AH20 AI20 AJ20 AK20 AG21 AH21 AI21 AJ21 AK21 AG22 AH22 AI22 AJ22 AK22 AG23 AH23 AI23 AJ23 AK23 AG24 AH24 AI24 AJ24 AK24 AG25 AH25 AI25 AJ25 AK25 AG26 AH26 AI26 AJ26 AK26 AG27 AH27 AI27 AJ27 AK27 AG28 AH28 AI28 AJ28 AK28 AG29 AH29 AI29 AJ29 AK29 AG30 AH30 AI30 AJ30 AK30 AG31 AH31 AI31 AJ31 AK31 AG32 AH32 AI32 AJ32 AK32 AG33 AH33 AI33 AJ33 AK33 AG34 AH34 AI34 AJ34 AK34 AG35 AH35 AI35 AJ35 AK35 AG36 AH36 AI36 AJ36 AK36 AG37 AH37 AI37 AJ37 AK37 AG38 AH38 AI38 AJ38 AK38 AG39 AH39 AI39 AJ39 AK39 AG40 AH40 AI40 AJ40 AK40 AG41 AH41 AI41 AJ41 AK41 AG42 AH42 AI42 AJ42 AK42 AG43 AH43 AI43 AJ43 AK43 AG44 AH44 AI44 AJ44 AK44 AG45 AH45 AI45 AJ45 AK45 AG46 AH46 AI46 AJ46 AK46 AG47 AH47 AI47 AJ47 AK47 AG48 AH48 AI48 AJ48 AK48 AG49 AH49 AI49 AJ49 AK49 AG50 AH50 AI50 AJ50 AK50 AG51 AH51 AI51 AJ51 AK51 AG52 AH52 AI52 AJ52 AK52 AG82:AN1048576 AG53:AK81 AL1:AT81"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q53:T1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19447,98 +21085,98 @@
         <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="13">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="13">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
@@ -19549,7 +21187,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -19560,7 +21198,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
@@ -19571,7 +21209,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -19582,7 +21220,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -19593,7 +21231,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" ht="13.5"/>
@@ -19626,13 +21264,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19643,10 +21281,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19657,10 +21295,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19668,13 +21306,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19682,13 +21320,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19699,10 +21337,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19710,13 +21348,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19727,10 +21365,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19741,10 +21379,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19755,10 +21393,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19769,10 +21407,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19780,13 +21418,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19794,13 +21432,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -19808,13 +21446,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
